--- a/CAFN Dec 2025.xlsx
+++ b/CAFN Dec 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsiddiq2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE1D79-E321-4C48-A230-14B396779CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73391A-87A9-E047-B176-4B5DA61D352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="500" windowWidth="38400" windowHeight="19820" activeTab="2" xr2:uid="{37761A0D-DF0D-47F4-91F9-34008CD9BB0F}"/>
+    <workbookView xWindow="27040" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{37761A0D-DF0D-47F4-91F9-34008CD9BB0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall List" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7011" uniqueCount="1535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7237" uniqueCount="1665">
   <si>
     <t>Parent</t>
   </si>
@@ -4693,6 +4693,396 @@
   <si>
     <t>Wake</t>
   </si>
+  <si>
+    <t>R1299FP1</t>
+  </si>
+  <si>
+    <t>R1299FP2</t>
+  </si>
+  <si>
+    <t>R1299FP3</t>
+  </si>
+  <si>
+    <t>R1299FP4</t>
+  </si>
+  <si>
+    <t>R1299FP5</t>
+  </si>
+  <si>
+    <t>R1299FP6</t>
+  </si>
+  <si>
+    <t>R1299FP7</t>
+  </si>
+  <si>
+    <t>R1299FP8</t>
+  </si>
+  <si>
+    <t>R1299FP9</t>
+  </si>
+  <si>
+    <t>R1299FP10</t>
+  </si>
+  <si>
+    <t>R1299FP11</t>
+  </si>
+  <si>
+    <t>R1299FP12</t>
+  </si>
+  <si>
+    <t>R1299FP13</t>
+  </si>
+  <si>
+    <t>R1299FP14</t>
+  </si>
+  <si>
+    <t>R1299FP15</t>
+  </si>
+  <si>
+    <t>R1299FP16</t>
+  </si>
+  <si>
+    <t>R1299FP17</t>
+  </si>
+  <si>
+    <t>R1299FP18</t>
+  </si>
+  <si>
+    <t>R1299FP19</t>
+  </si>
+  <si>
+    <t>R1299FP20</t>
+  </si>
+  <si>
+    <t>R1299FP21</t>
+  </si>
+  <si>
+    <t>C1090</t>
+  </si>
+  <si>
+    <t>C1090FP</t>
+  </si>
+  <si>
+    <t>C1091</t>
+  </si>
+  <si>
+    <t>C1092</t>
+  </si>
+  <si>
+    <t>C1093</t>
+  </si>
+  <si>
+    <t>C1094</t>
+  </si>
+  <si>
+    <t>C1095</t>
+  </si>
+  <si>
+    <t>C1096</t>
+  </si>
+  <si>
+    <t>C1097</t>
+  </si>
+  <si>
+    <t>C1098</t>
+  </si>
+  <si>
+    <t>C1099</t>
+  </si>
+  <si>
+    <t>C1100</t>
+  </si>
+  <si>
+    <t>C1101</t>
+  </si>
+  <si>
+    <t>C1102</t>
+  </si>
+  <si>
+    <t>C1103</t>
+  </si>
+  <si>
+    <t>C1104</t>
+  </si>
+  <si>
+    <t>C1105</t>
+  </si>
+  <si>
+    <t>C1106</t>
+  </si>
+  <si>
+    <t>C1107</t>
+  </si>
+  <si>
+    <t>C1108</t>
+  </si>
+  <si>
+    <t>C1109</t>
+  </si>
+  <si>
+    <t>C1110</t>
+  </si>
+  <si>
+    <t>C1111</t>
+  </si>
+  <si>
+    <t>C1112</t>
+  </si>
+  <si>
+    <t>C1113</t>
+  </si>
+  <si>
+    <t>C1114</t>
+  </si>
+  <si>
+    <t>C1115</t>
+  </si>
+  <si>
+    <t>C1116</t>
+  </si>
+  <si>
+    <t>C1117</t>
+  </si>
+  <si>
+    <t>C1118</t>
+  </si>
+  <si>
+    <t>C1119</t>
+  </si>
+  <si>
+    <t>C1120</t>
+  </si>
+  <si>
+    <t>C1121</t>
+  </si>
+  <si>
+    <t>C1122</t>
+  </si>
+  <si>
+    <t>C1123</t>
+  </si>
+  <si>
+    <t>C1124</t>
+  </si>
+  <si>
+    <t>C1125</t>
+  </si>
+  <si>
+    <t>C1126</t>
+  </si>
+  <si>
+    <t>C1127</t>
+  </si>
+  <si>
+    <t>C1128</t>
+  </si>
+  <si>
+    <t>C1129</t>
+  </si>
+  <si>
+    <t>C1130</t>
+  </si>
+  <si>
+    <t>C1131</t>
+  </si>
+  <si>
+    <t>C1132</t>
+  </si>
+  <si>
+    <t>C1133</t>
+  </si>
+  <si>
+    <t>C1134</t>
+  </si>
+  <si>
+    <t>C1135</t>
+  </si>
+  <si>
+    <t>C1136</t>
+  </si>
+  <si>
+    <t>C1137</t>
+  </si>
+  <si>
+    <t>C1138</t>
+  </si>
+  <si>
+    <t>C1139</t>
+  </si>
+  <si>
+    <t>C1140</t>
+  </si>
+  <si>
+    <t>C1141</t>
+  </si>
+  <si>
+    <t>C1142</t>
+  </si>
+  <si>
+    <t>C1143</t>
+  </si>
+  <si>
+    <t>C1144</t>
+  </si>
+  <si>
+    <t>C1145</t>
+  </si>
+  <si>
+    <t>C1146</t>
+  </si>
+  <si>
+    <t>C1147</t>
+  </si>
+  <si>
+    <t>C1148</t>
+  </si>
+  <si>
+    <t>C1149</t>
+  </si>
+  <si>
+    <t>C1150</t>
+  </si>
+  <si>
+    <t>C1151</t>
+  </si>
+  <si>
+    <t>C1152</t>
+  </si>
+  <si>
+    <t>C1153</t>
+  </si>
+  <si>
+    <t>C1154</t>
+  </si>
+  <si>
+    <t>C1155</t>
+  </si>
+  <si>
+    <t>C1156</t>
+  </si>
+  <si>
+    <t>C1157</t>
+  </si>
+  <si>
+    <t>C1158</t>
+  </si>
+  <si>
+    <t>C1159</t>
+  </si>
+  <si>
+    <t>C1160</t>
+  </si>
+  <si>
+    <t>C1161</t>
+  </si>
+  <si>
+    <t>C1162</t>
+  </si>
+  <si>
+    <t>C1163</t>
+  </si>
+  <si>
+    <t>C1164</t>
+  </si>
+  <si>
+    <t>C1165</t>
+  </si>
+  <si>
+    <t>C1166</t>
+  </si>
+  <si>
+    <t>C1167</t>
+  </si>
+  <si>
+    <t>C1168</t>
+  </si>
+  <si>
+    <t>C1169</t>
+  </si>
+  <si>
+    <t>C1170</t>
+  </si>
+  <si>
+    <t>C1171</t>
+  </si>
+  <si>
+    <t>C1172</t>
+  </si>
+  <si>
+    <t>C1173</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>DURHAM</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>JOHNSTON</t>
+  </si>
+  <si>
+    <t>CHATHAM</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Tambi√©n abrimos los martes, mi√©rcoles y jueves con cita previa; por favor, llame.</t>
+  </si>
+  <si>
+    <t>Servicio desde el auto: primer jueves de 17:30 a 19:00 y tercer jueves de 18:00 a 19:00.</t>
+  </si>
+  <si>
+    <t>TEFAP: 1.¬∫ y 3.¬∫ viernes a las 10:00</t>
+  </si>
+  <si>
+    <t>Abierto las 24 horas del d√≠a, los 7 d√≠as de la semana.</t>
+  </si>
+  <si>
+    <t>Tercer martes de 16:00 a 18:00, jueves de 16:00 a 18:00, s√°bados solo con cita previa</t>
+  </si>
+  <si>
+    <t>919-828-9014 Ext. 131</t>
+  </si>
+  <si>
+    <t>Cerrado los d√≠as festivos</t>
+  </si>
+  <si>
+    <t>Cada dos s√°bados - llame con anticipaci√≥n o visite el sitio web para confirmar los d√≠as y horarios de funcionamiento.</t>
+  </si>
+  <si>
+    <t>Tambi√©n disponible con cita previa durante el horario de oficina; por favor, llame.</t>
+  </si>
+  <si>
+    <t>No abrir el viernes anterior a la distribuci√≥n del s√°bado.</t>
+  </si>
+  <si>
+    <t>Tambi√©n atendemos con cita previa; por favor, llame.</t>
+  </si>
+  <si>
+    <t>Abierto a estudiantes, personal docente y administrativo de NCSU</t>
+  </si>
+  <si>
+    <t>Distribuciones trimestrales: enero, abril, julio y octubre</t>
+  </si>
+  <si>
+    <t>Tambi√©n disponible con cita previa; por favor, llame.</t>
+  </si>
+  <si>
+    <t>Tambi√©n disponible para emergencias. Llame al 919-496-5721 para programar una cita de 8:00 a. m. a 5:00 p. m.</t>
+  </si>
+  <si>
+    <t>Mi√©rcoles de 17:30 a 18:00. Pan los viernes.</t>
+  </si>
+  <si>
+    <t>Tercer mi√©rcoles</t>
+  </si>
 </sst>
 </file>
 
@@ -4701,7 +5091,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4752,6 +5142,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4850,7 +5246,18 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -35463,20 +35870,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC91BFA-F072-D542-8D83-2F5554CD9855}">
-  <dimension ref="A1:O297"/>
+  <dimension ref="A1:R296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="H128" sqref="H128"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="63.1640625" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
     <col min="8" max="8" width="30.6640625" customWidth="1"/>
+    <col min="9" max="13" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="165.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -35498,7 +35910,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>1641</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
@@ -35515,13 +35929,17 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>1253</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -35544,7 +35962,7 @@
         <v>27601</v>
       </c>
       <c r="H2" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
@@ -35561,11 +35979,14 @@
       <c r="M2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -35588,7 +36009,7 @@
         <v>27545</v>
       </c>
       <c r="H3" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -35605,11 +36026,14 @@
       <c r="M3" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -35632,7 +36056,7 @@
         <v>27605</v>
       </c>
       <c r="H4" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -35649,8 +36073,11 @@
       <c r="M4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N4" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -35673,7 +36100,7 @@
         <v>27601</v>
       </c>
       <c r="H5" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -35690,8 +36117,11 @@
       <c r="M5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -35714,7 +36144,7 @@
         <v>27513</v>
       </c>
       <c r="H6" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
@@ -35731,8 +36161,11 @@
       <c r="M6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N6" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -35755,7 +36188,7 @@
         <v>27520</v>
       </c>
       <c r="H7" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -35772,8 +36205,11 @@
       <c r="M7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -35796,7 +36232,7 @@
         <v>27596</v>
       </c>
       <c r="H8" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -35813,8 +36249,11 @@
       <c r="M8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N8" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -35837,7 +36276,7 @@
         <v>27545</v>
       </c>
       <c r="H9" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I9" t="s">
         <v>18</v>
@@ -35854,8 +36293,11 @@
       <c r="M9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N9" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -35878,7 +36320,7 @@
         <v>27587</v>
       </c>
       <c r="H10" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -35895,8 +36337,11 @@
       <c r="M10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N10" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>69</v>
       </c>
@@ -35919,7 +36364,7 @@
         <v>27591</v>
       </c>
       <c r="H11" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -35936,8 +36381,11 @@
       <c r="M11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N11" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>75</v>
       </c>
@@ -35960,7 +36408,7 @@
         <v>27610</v>
       </c>
       <c r="H12" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -35977,8 +36425,11 @@
       <c r="M12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N12" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>81</v>
       </c>
@@ -36001,7 +36452,7 @@
         <v>27610</v>
       </c>
       <c r="H13" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -36018,8 +36469,11 @@
       <c r="M13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>87</v>
       </c>
@@ -36042,7 +36496,7 @@
         <v>27597</v>
       </c>
       <c r="H14" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -36059,11 +36513,14 @@
       <c r="M14" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -36086,7 +36543,7 @@
         <v>27539</v>
       </c>
       <c r="H15" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -36103,8 +36560,11 @@
       <c r="M15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>99</v>
       </c>
@@ -36127,7 +36587,7 @@
         <v>27604</v>
       </c>
       <c r="H16" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -36144,8 +36604,11 @@
       <c r="M16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>105</v>
       </c>
@@ -36168,7 +36631,7 @@
         <v>27545</v>
       </c>
       <c r="H17" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -36185,8 +36648,11 @@
       <c r="M17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N17" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -36209,7 +36675,7 @@
         <v>27591</v>
       </c>
       <c r="H18" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -36226,8 +36692,11 @@
       <c r="M18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>117</v>
       </c>
@@ -36250,7 +36719,7 @@
         <v>27603</v>
       </c>
       <c r="H19" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -36267,8 +36736,11 @@
       <c r="M19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -36291,7 +36763,7 @@
         <v>27610</v>
       </c>
       <c r="H20" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -36308,8 +36780,11 @@
       <c r="M20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N20" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -36332,7 +36807,7 @@
         <v>27597</v>
       </c>
       <c r="H21" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -36349,8 +36824,11 @@
       <c r="M21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N21" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -36373,7 +36851,7 @@
         <v>27607</v>
       </c>
       <c r="H22" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -36390,8 +36868,11 @@
       <c r="M22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N22" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -36414,7 +36895,7 @@
         <v>27597</v>
       </c>
       <c r="H23" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -36431,11 +36912,14 @@
       <c r="M23" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P23" s="5" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -36458,7 +36942,7 @@
         <v>27610</v>
       </c>
       <c r="H24" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -36475,8 +36959,11 @@
       <c r="M24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N24" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -36499,7 +36986,7 @@
         <v>27616</v>
       </c>
       <c r="H25" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
@@ -36516,8 +37003,11 @@
       <c r="M25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N25" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>159</v>
       </c>
@@ -36540,7 +37030,7 @@
         <v>27501</v>
       </c>
       <c r="H26" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -36557,8 +37047,11 @@
       <c r="M26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N26" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>165</v>
       </c>
@@ -36581,7 +37074,7 @@
         <v>27587</v>
       </c>
       <c r="H27" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -36598,8 +37091,11 @@
       <c r="M27" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N27" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>171</v>
       </c>
@@ -36622,7 +37118,7 @@
         <v>27540</v>
       </c>
       <c r="H28" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -36639,8 +37135,11 @@
       <c r="M28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -36663,7 +37162,7 @@
         <v>27604</v>
       </c>
       <c r="H29" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -36680,8 +37179,11 @@
       <c r="M29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N29" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -36704,7 +37206,7 @@
         <v>27591</v>
       </c>
       <c r="H30" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -36721,8 +37223,11 @@
       <c r="M30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N30" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -36745,7 +37250,7 @@
         <v>27604</v>
       </c>
       <c r="H31" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
@@ -36762,8 +37267,11 @@
       <c r="M31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -36786,7 +37294,7 @@
         <v>27597</v>
       </c>
       <c r="H32" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -36803,8 +37311,11 @@
       <c r="M32" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>201</v>
       </c>
@@ -36827,7 +37338,7 @@
         <v>27610</v>
       </c>
       <c r="H33" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -36844,8 +37355,11 @@
       <c r="M33" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N33" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -36868,7 +37382,7 @@
         <v>27610</v>
       </c>
       <c r="H34" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -36885,8 +37399,11 @@
       <c r="M34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -36909,7 +37426,7 @@
         <v>27616</v>
       </c>
       <c r="H35" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -36926,11 +37443,14 @@
       <c r="M35" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>219</v>
       </c>
@@ -36953,7 +37473,7 @@
         <v>27587</v>
       </c>
       <c r="H36" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -36970,8 +37490,11 @@
       <c r="M36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N36" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -36994,7 +37517,7 @@
         <v>27597</v>
       </c>
       <c r="H37" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
@@ -37011,8 +37534,11 @@
       <c r="M37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N37" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>231</v>
       </c>
@@ -37035,7 +37561,7 @@
         <v>27529</v>
       </c>
       <c r="H38" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -37052,8 +37578,11 @@
       <c r="M38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>237</v>
       </c>
@@ -37076,7 +37605,7 @@
         <v>27526</v>
       </c>
       <c r="H39" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -37093,8 +37622,11 @@
       <c r="M39" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>243</v>
       </c>
@@ -37117,7 +37649,7 @@
         <v>27529</v>
       </c>
       <c r="H40" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -37134,8 +37666,11 @@
       <c r="M40" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N40" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>249</v>
       </c>
@@ -37158,7 +37693,7 @@
         <v>27603</v>
       </c>
       <c r="H41" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -37175,8 +37710,11 @@
       <c r="M41" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N41" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>255</v>
       </c>
@@ -37199,7 +37737,7 @@
         <v>27591</v>
       </c>
       <c r="H42" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -37216,8 +37754,11 @@
       <c r="M42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N42" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>261</v>
       </c>
@@ -37240,7 +37781,7 @@
         <v>27607</v>
       </c>
       <c r="H43" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -37257,8 +37798,11 @@
       <c r="M43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N43" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>267</v>
       </c>
@@ -37281,7 +37825,7 @@
         <v>27604</v>
       </c>
       <c r="H44" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
@@ -37298,8 +37842,11 @@
       <c r="M44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N44" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>273</v>
       </c>
@@ -37322,7 +37869,7 @@
         <v>27520</v>
       </c>
       <c r="H45" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
@@ -37339,8 +37886,11 @@
       <c r="M45" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>279</v>
       </c>
@@ -37381,8 +37931,11 @@
       <c r="M46" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N46" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>285</v>
       </c>
@@ -37405,7 +37958,7 @@
         <v>27526</v>
       </c>
       <c r="H47" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
@@ -37422,11 +37975,14 @@
       <c r="M47" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P47" s="5" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>291</v>
       </c>
@@ -37449,7 +38005,7 @@
         <v>27606</v>
       </c>
       <c r="H48" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -37466,11 +38022,14 @@
       <c r="M48" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P48" s="5" t="s">
         <v>1155</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>297</v>
       </c>
@@ -37493,7 +38052,7 @@
         <v>27597</v>
       </c>
       <c r="H49" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -37510,8 +38069,11 @@
       <c r="M49" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>303</v>
       </c>
@@ -37534,7 +38096,7 @@
         <v>27609</v>
       </c>
       <c r="H50" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I50" t="s">
         <v>18</v>
@@ -37551,8 +38113,11 @@
       <c r="M50" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>309</v>
       </c>
@@ -37575,7 +38140,7 @@
         <v>27616</v>
       </c>
       <c r="H51" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I51" t="s">
         <v>18</v>
@@ -37592,8 +38157,11 @@
       <c r="M51" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>314</v>
       </c>
@@ -37616,7 +38184,7 @@
         <v>27610</v>
       </c>
       <c r="H52" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I52" t="s">
         <v>18</v>
@@ -37633,8 +38201,11 @@
       <c r="M52" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>319</v>
       </c>
@@ -37657,7 +38228,7 @@
         <v>27603</v>
       </c>
       <c r="H53" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I53" t="s">
         <v>18</v>
@@ -37674,8 +38245,11 @@
       <c r="M53" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>325</v>
       </c>
@@ -37698,7 +38272,7 @@
         <v>27526</v>
       </c>
       <c r="H54" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I54" t="s">
         <v>18</v>
@@ -37715,8 +38289,11 @@
       <c r="M54" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>331</v>
       </c>
@@ -37739,7 +38316,7 @@
         <v>27591</v>
       </c>
       <c r="H55" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I55" t="s">
         <v>18</v>
@@ -37756,8 +38333,11 @@
       <c r="M55" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>339</v>
       </c>
@@ -37780,7 +38360,7 @@
         <v>27615</v>
       </c>
       <c r="H56" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I56" t="s">
         <v>18</v>
@@ -37797,8 +38377,11 @@
       <c r="M56" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>345</v>
       </c>
@@ -37821,7 +38404,7 @@
         <v>27587</v>
       </c>
       <c r="H57" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I57" t="s">
         <v>18</v>
@@ -37838,8 +38421,11 @@
       <c r="M57" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>351</v>
       </c>
@@ -37862,7 +38448,7 @@
         <v>27511</v>
       </c>
       <c r="H58" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I58" t="s">
         <v>18</v>
@@ -37879,8 +38465,11 @@
       <c r="M58" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>995</v>
       </c>
@@ -37902,9 +38491,8 @@
       <c r="G59">
         <v>27511</v>
       </c>
-      <c r="H59" t="str">
-        <f>VLOOKUP(C58,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>ONSLOW</v>
+      <c r="H59" t="s">
+        <v>1642</v>
       </c>
       <c r="I59" t="s">
         <v>18</v>
@@ -37921,8 +38509,11 @@
       <c r="M59" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1001</v>
       </c>
@@ -37945,7 +38536,7 @@
         <v>27526</v>
       </c>
       <c r="H60" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I60" t="s">
         <v>18</v>
@@ -37962,8 +38553,11 @@
       <c r="M60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1007</v>
       </c>
@@ -37986,7 +38580,7 @@
         <v>27587</v>
       </c>
       <c r="H61" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I61" t="s">
         <v>18</v>
@@ -38003,8 +38597,11 @@
       <c r="M61" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1013</v>
       </c>
@@ -38027,7 +38624,7 @@
         <v>27587</v>
       </c>
       <c r="H62" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I62" t="s">
         <v>18</v>
@@ -38044,8 +38641,11 @@
       <c r="M62" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1018</v>
       </c>
@@ -38068,7 +38668,7 @@
         <v>27587</v>
       </c>
       <c r="H63" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I63" t="s">
         <v>18</v>
@@ -38085,8 +38685,11 @@
       <c r="M63" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1025</v>
       </c>
@@ -38109,7 +38712,7 @@
         <v>27587</v>
       </c>
       <c r="H64" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I64" t="s">
         <v>18</v>
@@ -38126,8 +38729,11 @@
       <c r="M64" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1031</v>
       </c>
@@ -38147,7 +38753,7 @@
         <v>27587</v>
       </c>
       <c r="H65" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I65" t="s">
         <v>18</v>
@@ -38164,8 +38770,11 @@
       <c r="M65" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1036</v>
       </c>
@@ -38185,7 +38794,7 @@
         <v>27587</v>
       </c>
       <c r="H66" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I66" t="s">
         <v>18</v>
@@ -38202,8 +38811,11 @@
       <c r="M66" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1040</v>
       </c>
@@ -38226,7 +38838,7 @@
         <v>27601</v>
       </c>
       <c r="H67" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I67" t="s">
         <v>18</v>
@@ -38243,8 +38855,11 @@
       <c r="M67" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1045</v>
       </c>
@@ -38264,7 +38879,7 @@
         <v>27601</v>
       </c>
       <c r="H68" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I68" t="s">
         <v>18</v>
@@ -38281,8 +38896,11 @@
       <c r="M68" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1049</v>
       </c>
@@ -38305,7 +38923,7 @@
         <v>27603</v>
       </c>
       <c r="H69" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I69" t="s">
         <v>18</v>
@@ -38322,8 +38940,11 @@
       <c r="M69" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1055</v>
       </c>
@@ -38346,7 +38967,7 @@
         <v>27603</v>
       </c>
       <c r="H70" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I70" t="s">
         <v>18</v>
@@ -38363,8 +38984,11 @@
       <c r="M70" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1062</v>
       </c>
@@ -38384,7 +39008,7 @@
         <v>27603</v>
       </c>
       <c r="H71" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I71" t="s">
         <v>18</v>
@@ -38401,8 +39025,11 @@
       <c r="M71" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1065</v>
       </c>
@@ -38425,7 +39052,7 @@
         <v>27603</v>
       </c>
       <c r="H72" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I72" t="s">
         <v>18</v>
@@ -38442,8 +39069,11 @@
       <c r="M72" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>1071</v>
       </c>
@@ -38466,7 +39096,7 @@
         <v>27604</v>
       </c>
       <c r="H73" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I73" t="s">
         <v>18</v>
@@ -38483,8 +39113,11 @@
       <c r="M73" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>1077</v>
       </c>
@@ -38504,7 +39137,7 @@
         <v>27604</v>
       </c>
       <c r="H74" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I74" t="s">
         <v>18</v>
@@ -38521,8 +39154,11 @@
       <c r="M74" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>1080</v>
       </c>
@@ -38542,7 +39178,7 @@
         <v>27605</v>
       </c>
       <c r="H75" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I75" t="s">
         <v>18</v>
@@ -38559,8 +39195,11 @@
       <c r="M75" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>1083</v>
       </c>
@@ -38583,7 +39222,7 @@
         <v>27605</v>
       </c>
       <c r="H76" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I76" t="s">
         <v>18</v>
@@ -38600,8 +39239,11 @@
       <c r="M76" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>1090</v>
       </c>
@@ -38621,7 +39263,7 @@
         <v>27606</v>
       </c>
       <c r="H77" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I77" t="s">
         <v>18</v>
@@ -38638,8 +39280,11 @@
       <c r="M77" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>1093</v>
       </c>
@@ -38659,7 +39304,7 @@
         <v>27606</v>
       </c>
       <c r="H78" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I78" t="s">
         <v>18</v>
@@ -38676,8 +39321,11 @@
       <c r="M78" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>1096</v>
       </c>
@@ -38697,7 +39345,7 @@
         <v>27606</v>
       </c>
       <c r="H79" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I79" t="s">
         <v>18</v>
@@ -38714,8 +39362,11 @@
       <c r="M79" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>1099</v>
       </c>
@@ -38735,7 +39386,7 @@
         <v>27607</v>
       </c>
       <c r="H80" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I80" t="s">
         <v>18</v>
@@ -38752,8 +39403,11 @@
       <c r="M80" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>1102</v>
       </c>
@@ -38773,7 +39427,7 @@
         <v>27607</v>
       </c>
       <c r="H81" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I81" t="s">
         <v>18</v>
@@ -38790,8 +39444,11 @@
       <c r="M81" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N81" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>1105</v>
       </c>
@@ -38814,7 +39471,7 @@
         <v>27607</v>
       </c>
       <c r="H82" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I82" t="s">
         <v>18</v>
@@ -38831,8 +39488,11 @@
       <c r="M82" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N82" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>1111</v>
       </c>
@@ -38855,7 +39515,7 @@
         <v>27610</v>
       </c>
       <c r="H83" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I83" t="s">
         <v>18</v>
@@ -38872,8 +39532,11 @@
       <c r="M83" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N83" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>1117</v>
       </c>
@@ -38896,7 +39559,7 @@
         <v>27610</v>
       </c>
       <c r="H84" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I84" t="s">
         <v>18</v>
@@ -38913,8 +39576,11 @@
       <c r="M84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N84" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>1123</v>
       </c>
@@ -38934,7 +39600,7 @@
         <v>27610</v>
       </c>
       <c r="H85" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I85" t="s">
         <v>18</v>
@@ -38951,8 +39617,11 @@
       <c r="M85" t="s">
         <v>1035</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N85" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>1127</v>
       </c>
@@ -38975,7 +39644,7 @@
         <v>27615</v>
       </c>
       <c r="H86" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I86" t="s">
         <v>18</v>
@@ -38992,8 +39661,11 @@
       <c r="M86" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>357</v>
       </c>
@@ -39016,7 +39688,7 @@
         <v>27604</v>
       </c>
       <c r="H87" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I87" t="s">
         <v>18</v>
@@ -39033,11 +39705,17 @@
       <c r="M87" t="s">
         <v>20</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" t="s">
+        <v>1648</v>
+      </c>
+      <c r="O87">
+        <v>1</v>
+      </c>
+      <c r="P87" s="5" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>363</v>
       </c>
@@ -39059,9 +39737,8 @@
       <c r="G88">
         <v>27502</v>
       </c>
-      <c r="H88" t="str">
-        <f>VLOOKUP(C87,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H88" t="s">
+        <v>1642</v>
       </c>
       <c r="I88" t="s">
         <v>18</v>
@@ -39078,8 +39755,11 @@
       <c r="M88" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N88" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -39102,7 +39782,7 @@
         <v>27613</v>
       </c>
       <c r="H89" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I89" t="s">
         <v>18</v>
@@ -39119,8 +39799,11 @@
       <c r="M89" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>377</v>
       </c>
@@ -39142,9 +39825,8 @@
       <c r="G90">
         <v>27615</v>
       </c>
-      <c r="H90" t="str">
-        <f>VLOOKUP(C89,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H90" t="s">
+        <v>1642</v>
       </c>
       <c r="I90" t="s">
         <v>18</v>
@@ -39161,8 +39843,11 @@
       <c r="M90" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>383</v>
       </c>
@@ -39184,9 +39869,8 @@
       <c r="G91">
         <v>27529</v>
       </c>
-      <c r="H91" t="str">
-        <f>VLOOKUP(C90,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H91" t="s">
+        <v>1642</v>
       </c>
       <c r="I91" t="s">
         <v>18</v>
@@ -39203,8 +39887,11 @@
       <c r="M91" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>389</v>
       </c>
@@ -39226,9 +39913,8 @@
       <c r="G92">
         <v>27604</v>
       </c>
-      <c r="H92" t="str">
-        <f>VLOOKUP(C91,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H92" t="s">
+        <v>1642</v>
       </c>
       <c r="I92" t="s">
         <v>18</v>
@@ -39245,11 +39931,14 @@
       <c r="M92" t="s">
         <v>20</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="P92" s="5" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>395</v>
       </c>
@@ -39268,9 +39957,8 @@
       <c r="G93">
         <v>27606</v>
       </c>
-      <c r="H93" t="str">
-        <f>VLOOKUP(C92,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H93" t="s">
+        <v>1642</v>
       </c>
       <c r="I93" t="s">
         <v>18</v>
@@ -39287,8 +39975,11 @@
       <c r="M93" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N93" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>401</v>
       </c>
@@ -39326,8 +40017,11 @@
       <c r="M94" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N94" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>408</v>
       </c>
@@ -39367,8 +40061,11 @@
       <c r="M95" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>414</v>
       </c>
@@ -39409,8 +40106,11 @@
       <c r="M96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>420</v>
       </c>
@@ -39451,8 +40151,11 @@
       <c r="M97" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>426</v>
       </c>
@@ -39493,8 +40196,14 @@
       <c r="M98" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N98" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>426</v>
       </c>
@@ -39535,11 +40244,17 @@
       <c r="M99" t="s">
         <v>20</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" t="s">
+        <v>1649</v>
+      </c>
+      <c r="O99">
+        <v>1</v>
+      </c>
+      <c r="P99" s="5" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>435</v>
       </c>
@@ -39580,11 +40295,17 @@
       <c r="M100" t="s">
         <v>20</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" t="s">
+        <v>1650</v>
+      </c>
+      <c r="O100">
+        <v>1</v>
+      </c>
+      <c r="P100" s="5" t="s">
         <v>1135</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>441</v>
       </c>
@@ -39625,8 +40346,11 @@
       <c r="M101" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>447</v>
       </c>
@@ -39667,8 +40391,11 @@
       <c r="M102" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>453</v>
       </c>
@@ -39709,11 +40436,14 @@
       <c r="M103" t="s">
         <v>20</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="P103" s="5" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>459</v>
       </c>
@@ -39754,8 +40484,11 @@
       <c r="M104" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>465</v>
       </c>
@@ -39796,8 +40529,11 @@
       <c r="M105" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N105" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>471</v>
       </c>
@@ -39820,7 +40556,7 @@
         <v>27603</v>
       </c>
       <c r="H106" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I106" t="s">
         <v>18</v>
@@ -39837,8 +40573,11 @@
       <c r="M106" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>477</v>
       </c>
@@ -39879,8 +40618,11 @@
       <c r="M107" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N107" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>477</v>
       </c>
@@ -39903,7 +40645,7 @@
         <v>27604</v>
       </c>
       <c r="H108" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I108" t="s">
         <v>18</v>
@@ -39920,8 +40662,11 @@
       <c r="M108" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N108" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>477</v>
       </c>
@@ -39944,7 +40689,7 @@
         <v>27604</v>
       </c>
       <c r="H109" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I109" t="s">
         <v>18</v>
@@ -39961,8 +40706,11 @@
       <c r="M109" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N109" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>477</v>
       </c>
@@ -39985,7 +40733,7 @@
         <v>27610</v>
       </c>
       <c r="H110" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I110" t="s">
         <v>18</v>
@@ -40002,8 +40750,11 @@
       <c r="M110" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N110" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>477</v>
       </c>
@@ -40026,7 +40777,7 @@
         <v>27610</v>
       </c>
       <c r="H111" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I111" t="s">
         <v>18</v>
@@ -40043,8 +40794,11 @@
       <c r="M111" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N111" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>477</v>
       </c>
@@ -40067,7 +40821,7 @@
         <v>27604</v>
       </c>
       <c r="H112" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I112" t="s">
         <v>18</v>
@@ -40084,8 +40838,11 @@
       <c r="M112" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N112" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>500</v>
       </c>
@@ -40108,7 +40865,7 @@
         <v>27603</v>
       </c>
       <c r="H113" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I113" t="s">
         <v>18</v>
@@ -40125,8 +40882,11 @@
       <c r="M113" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N113" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>506</v>
       </c>
@@ -40149,7 +40909,7 @@
         <v>27610</v>
       </c>
       <c r="H114" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I114" t="s">
         <v>18</v>
@@ -40166,8 +40926,11 @@
       <c r="M114" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>512</v>
       </c>
@@ -40208,8 +40971,11 @@
       <c r="M115" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>518</v>
       </c>
@@ -40247,11 +41013,17 @@
       <c r="M116" t="s">
         <v>522</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O116">
+        <v>1</v>
+      </c>
+      <c r="P116" s="5" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>518</v>
       </c>
@@ -40289,8 +41061,14 @@
       <c r="M117" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N117" t="s">
+        <v>1651</v>
+      </c>
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>526</v>
       </c>
@@ -40331,8 +41109,11 @@
       <c r="M118" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>532</v>
       </c>
@@ -40373,8 +41154,11 @@
       <c r="M119" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>538</v>
       </c>
@@ -40415,8 +41199,11 @@
       <c r="M120" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>544</v>
       </c>
@@ -40439,7 +41226,7 @@
         <v>27603</v>
       </c>
       <c r="H121" t="s">
-        <v>1534</v>
+        <v>1642</v>
       </c>
       <c r="I121" t="s">
         <v>18</v>
@@ -40456,8 +41243,11 @@
       <c r="M121" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>550</v>
       </c>
@@ -40498,8 +41288,11 @@
       <c r="M122" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>556</v>
       </c>
@@ -40540,8 +41333,11 @@
       <c r="M123" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>562</v>
       </c>
@@ -40582,8 +41378,11 @@
       <c r="M124" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N124" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>568</v>
       </c>
@@ -40605,9 +41404,8 @@
       <c r="G125">
         <v>27571</v>
       </c>
-      <c r="H125" t="e">
-        <f>VLOOKUP(C124,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H125" t="s">
+        <v>1642</v>
       </c>
       <c r="I125" t="s">
         <v>18</v>
@@ -40624,11 +41422,14 @@
       <c r="M125" t="s">
         <v>20</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="P125" s="5" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>574</v>
       </c>
@@ -40669,8 +41470,11 @@
       <c r="M126" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>580</v>
       </c>
@@ -40711,8 +41515,11 @@
       <c r="M127" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N127" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>586</v>
       </c>
@@ -40734,9 +41541,8 @@
       <c r="G128">
         <v>27526</v>
       </c>
-      <c r="H128" t="e">
-        <f>VLOOKUP(C127,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H128" t="s">
+        <v>1642</v>
       </c>
       <c r="I128" t="s">
         <v>18</v>
@@ -40753,8 +41559,11 @@
       <c r="M128" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>592</v>
       </c>
@@ -40795,8 +41604,11 @@
       <c r="M129" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>598</v>
       </c>
@@ -40837,8 +41649,11 @@
       <c r="M130" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>604</v>
       </c>
@@ -40879,11 +41694,14 @@
       <c r="M131" t="s">
         <v>20</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="P131" s="5" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>610</v>
       </c>
@@ -40924,8 +41742,11 @@
       <c r="M132" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>616</v>
       </c>
@@ -40966,11 +41787,17 @@
       <c r="M133" t="s">
         <v>20</v>
       </c>
-      <c r="N133" s="5" t="s">
+      <c r="N133" t="s">
+        <v>1652</v>
+      </c>
+      <c r="O133">
+        <v>1</v>
+      </c>
+      <c r="P133" s="5" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>622</v>
       </c>
@@ -41011,13 +41838,16 @@
       <c r="M134" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>628</v>
       </c>
       <c r="B135" t="s">
-        <v>629</v>
+        <v>1535</v>
       </c>
       <c r="C135" t="s">
         <v>649</v>
@@ -41053,13 +41883,16 @@
       <c r="M135" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N135" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>628</v>
       </c>
       <c r="B136" t="s">
-        <v>629</v>
+        <v>1536</v>
       </c>
       <c r="C136" t="s">
         <v>664</v>
@@ -41076,9 +41909,8 @@
       <c r="G136">
         <v>27610</v>
       </c>
-      <c r="H136" t="e">
-        <f>VLOOKUP(C135,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H136" t="s">
+        <v>1642</v>
       </c>
       <c r="I136" t="s">
         <v>18</v>
@@ -41095,13 +41927,16 @@
       <c r="M136" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N136" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>628</v>
       </c>
       <c r="B137" t="s">
-        <v>629</v>
+        <v>1537</v>
       </c>
       <c r="C137" t="s">
         <v>669</v>
@@ -41118,9 +41953,8 @@
       <c r="G137">
         <v>27610</v>
       </c>
-      <c r="H137" t="e">
-        <f>VLOOKUP(C136,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H137" t="s">
+        <v>1642</v>
       </c>
       <c r="I137" t="s">
         <v>18</v>
@@ -41137,13 +41971,16 @@
       <c r="M137" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>628</v>
       </c>
       <c r="B138" t="s">
-        <v>629</v>
+        <v>1538</v>
       </c>
       <c r="C138" t="s">
         <v>646</v>
@@ -41160,9 +41997,8 @@
       <c r="G138">
         <v>27601</v>
       </c>
-      <c r="H138" t="e">
-        <f>VLOOKUP(C137,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H138" t="s">
+        <v>1642</v>
       </c>
       <c r="I138" t="s">
         <v>18</v>
@@ -41179,13 +42015,16 @@
       <c r="M138" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>628</v>
       </c>
       <c r="B139" t="s">
-        <v>629</v>
+        <v>1539</v>
       </c>
       <c r="C139" t="s">
         <v>637</v>
@@ -41202,9 +42041,8 @@
       <c r="G139">
         <v>27545</v>
       </c>
-      <c r="H139" t="e">
-        <f>VLOOKUP(C138,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H139" t="s">
+        <v>1642</v>
       </c>
       <c r="I139" t="s">
         <v>18</v>
@@ -41221,13 +42059,16 @@
       <c r="M139" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N139" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>628</v>
       </c>
       <c r="B140" t="s">
-        <v>629</v>
+        <v>1540</v>
       </c>
       <c r="C140" t="s">
         <v>639</v>
@@ -41244,9 +42085,8 @@
       <c r="G140">
         <v>27545</v>
       </c>
-      <c r="H140" t="e">
-        <f>VLOOKUP(C139,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H140" t="s">
+        <v>1642</v>
       </c>
       <c r="I140" t="s">
         <v>18</v>
@@ -41263,13 +42103,16 @@
       <c r="M140" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N140" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>628</v>
       </c>
       <c r="B141" t="s">
-        <v>629</v>
+        <v>1541</v>
       </c>
       <c r="C141" t="s">
         <v>671</v>
@@ -41286,9 +42129,8 @@
       <c r="G141">
         <v>27610</v>
       </c>
-      <c r="H141" t="e">
-        <f>VLOOKUP(C140,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H141" t="s">
+        <v>1642</v>
       </c>
       <c r="I141" t="s">
         <v>18</v>
@@ -41305,13 +42147,16 @@
       <c r="M141" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>628</v>
       </c>
       <c r="B142" t="s">
-        <v>629</v>
+        <v>1542</v>
       </c>
       <c r="C142" t="s">
         <v>630</v>
@@ -41328,9 +42173,8 @@
       <c r="G142">
         <v>27513</v>
       </c>
-      <c r="H142" t="e">
-        <f>VLOOKUP(C141,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H142" t="s">
+        <v>1642</v>
       </c>
       <c r="I142" t="s">
         <v>18</v>
@@ -41347,13 +42191,16 @@
       <c r="M142" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>628</v>
       </c>
       <c r="B143" t="s">
-        <v>629</v>
+        <v>1543</v>
       </c>
       <c r="C143" t="s">
         <v>667</v>
@@ -41370,9 +42217,8 @@
       <c r="G143">
         <v>27610</v>
       </c>
-      <c r="H143" t="e">
-        <f>VLOOKUP(C142,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H143" t="s">
+        <v>1642</v>
       </c>
       <c r="I143" t="s">
         <v>18</v>
@@ -41389,13 +42235,16 @@
       <c r="M143" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>628</v>
       </c>
       <c r="B144" t="s">
-        <v>629</v>
+        <v>1544</v>
       </c>
       <c r="C144" t="s">
         <v>635</v>
@@ -41412,9 +42261,8 @@
       <c r="G144">
         <v>27545</v>
       </c>
-      <c r="H144" t="e">
-        <f>VLOOKUP(C143,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H144" t="s">
+        <v>1642</v>
       </c>
       <c r="I144" t="s">
         <v>18</v>
@@ -41431,13 +42279,16 @@
       <c r="M144" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N144" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>628</v>
       </c>
       <c r="B145" t="s">
-        <v>629</v>
+        <v>1545</v>
       </c>
       <c r="C145" t="s">
         <v>655</v>
@@ -41454,9 +42305,8 @@
       <c r="G145">
         <v>27604</v>
       </c>
-      <c r="H145" t="e">
-        <f>VLOOKUP(C144,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H145" t="s">
+        <v>1642</v>
       </c>
       <c r="I145" t="s">
         <v>18</v>
@@ -41473,13 +42323,16 @@
       <c r="M145" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>628</v>
       </c>
       <c r="B146" t="s">
-        <v>629</v>
+        <v>1546</v>
       </c>
       <c r="C146" t="s">
         <v>657</v>
@@ -41496,9 +42349,8 @@
       <c r="G146">
         <v>27609</v>
       </c>
-      <c r="H146" t="e">
-        <f>VLOOKUP(C145,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H146" t="s">
+        <v>1642</v>
       </c>
       <c r="I146" t="s">
         <v>18</v>
@@ -41515,13 +42367,16 @@
       <c r="M146" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>628</v>
       </c>
       <c r="B147" t="s">
-        <v>629</v>
+        <v>1547</v>
       </c>
       <c r="C147" t="s">
         <v>678</v>
@@ -41538,9 +42393,8 @@
       <c r="G147">
         <v>27616</v>
       </c>
-      <c r="H147" t="e">
-        <f>VLOOKUP(C146,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H147" t="s">
+        <v>1642</v>
       </c>
       <c r="I147" t="s">
         <v>18</v>
@@ -41557,13 +42411,16 @@
       <c r="M147" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>628</v>
       </c>
       <c r="B148" t="s">
-        <v>629</v>
+        <v>1548</v>
       </c>
       <c r="C148" t="s">
         <v>651</v>
@@ -41580,9 +42437,8 @@
       <c r="G148">
         <v>27604</v>
       </c>
-      <c r="H148" t="e">
-        <f>VLOOKUP(C147,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H148" t="s">
+        <v>1642</v>
       </c>
       <c r="I148" t="s">
         <v>18</v>
@@ -41599,16 +42455,19 @@
       <c r="M148" t="s">
         <v>20</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P148" s="5" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>628</v>
       </c>
       <c r="B149" t="s">
-        <v>629</v>
+        <v>1549</v>
       </c>
       <c r="C149" t="s">
         <v>675</v>
@@ -41625,9 +42484,8 @@
       <c r="G149">
         <v>27616</v>
       </c>
-      <c r="H149" t="e">
-        <f>VLOOKUP(C148,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H149" t="s">
+        <v>1642</v>
       </c>
       <c r="I149" t="s">
         <v>18</v>
@@ -41644,13 +42502,16 @@
       <c r="M149" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>628</v>
       </c>
       <c r="B150" t="s">
-        <v>629</v>
+        <v>1550</v>
       </c>
       <c r="C150" t="s">
         <v>660</v>
@@ -41667,9 +42528,8 @@
       <c r="G150">
         <v>27609</v>
       </c>
-      <c r="H150" t="e">
-        <f>VLOOKUP(C149,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H150" t="s">
+        <v>1642</v>
       </c>
       <c r="I150" t="s">
         <v>18</v>
@@ -41686,13 +42546,16 @@
       <c r="M150" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N150" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>628</v>
       </c>
       <c r="B151" t="s">
-        <v>629</v>
+        <v>1551</v>
       </c>
       <c r="C151" t="s">
         <v>673</v>
@@ -41709,9 +42572,8 @@
       <c r="G151">
         <v>27613</v>
       </c>
-      <c r="H151" t="e">
-        <f>VLOOKUP(C150,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H151" t="s">
+        <v>1642</v>
       </c>
       <c r="I151" t="s">
         <v>18</v>
@@ -41728,13 +42590,16 @@
       <c r="M151" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N151" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>628</v>
       </c>
       <c r="B152" t="s">
-        <v>629</v>
+        <v>1552</v>
       </c>
       <c r="C152" t="s">
         <v>662</v>
@@ -41751,9 +42616,8 @@
       <c r="G152">
         <v>27609</v>
       </c>
-      <c r="H152" t="e">
-        <f>VLOOKUP(C151,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H152" t="s">
+        <v>1642</v>
       </c>
       <c r="I152" t="s">
         <v>18</v>
@@ -41770,13 +42634,16 @@
       <c r="M152" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>628</v>
       </c>
       <c r="B153" t="s">
-        <v>629</v>
+        <v>1553</v>
       </c>
       <c r="C153" t="s">
         <v>681</v>
@@ -41793,9 +42660,8 @@
       <c r="G153">
         <v>27616</v>
       </c>
-      <c r="H153" t="e">
-        <f>VLOOKUP(C152,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H153" t="s">
+        <v>1642</v>
       </c>
       <c r="I153" t="s">
         <v>18</v>
@@ -41812,13 +42678,16 @@
       <c r="M153" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N153" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>628</v>
       </c>
       <c r="B154" t="s">
-        <v>629</v>
+        <v>1554</v>
       </c>
       <c r="C154" t="s">
         <v>644</v>
@@ -41835,9 +42704,8 @@
       <c r="G154">
         <v>27587</v>
       </c>
-      <c r="H154" t="e">
-        <f>VLOOKUP(C153,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H154" t="s">
+        <v>1642</v>
       </c>
       <c r="I154" t="s">
         <v>18</v>
@@ -41854,13 +42722,16 @@
       <c r="M154" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>628</v>
       </c>
       <c r="B155" t="s">
-        <v>629</v>
+        <v>1555</v>
       </c>
       <c r="C155" t="s">
         <v>641</v>
@@ -41877,9 +42748,8 @@
       <c r="G155">
         <v>27587</v>
       </c>
-      <c r="H155" t="e">
-        <f>VLOOKUP(C154,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H155" t="s">
+        <v>1642</v>
       </c>
       <c r="I155" t="s">
         <v>18</v>
@@ -41896,8 +42766,11 @@
       <c r="M155" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>684</v>
       </c>
@@ -41919,9 +42792,8 @@
       <c r="G156">
         <v>27601</v>
       </c>
-      <c r="H156" t="e">
-        <f>VLOOKUP(C155,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H156" t="s">
+        <v>1642</v>
       </c>
       <c r="I156" t="s">
         <v>18</v>
@@ -41938,8 +42810,11 @@
       <c r="M156" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N156" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>690</v>
       </c>
@@ -41961,9 +42836,8 @@
       <c r="G157">
         <v>27601</v>
       </c>
-      <c r="H157" t="e">
-        <f>VLOOKUP(C156,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H157" t="s">
+        <v>1642</v>
       </c>
       <c r="I157" t="s">
         <v>18</v>
@@ -41980,8 +42854,11 @@
       <c r="M157" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N157" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>690</v>
       </c>
@@ -42022,8 +42899,11 @@
       <c r="M158" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N158" t="s">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>690</v>
       </c>
@@ -42064,12 +42944,15 @@
       <c r="M159" t="s">
         <v>522</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P159" s="5" t="s">
         <v>1138</v>
       </c>
-      <c r="O159" s="5"/>
-    </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q159" s="5"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>690</v>
       </c>
@@ -42110,12 +42993,15 @@
       <c r="M160" t="s">
         <v>338</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" t="s">
+        <v>1653</v>
+      </c>
+      <c r="P160" s="5" t="s">
         <v>1143</v>
       </c>
-      <c r="O160" s="5"/>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="Q160" s="5"/>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>701</v>
       </c>
@@ -42156,8 +43042,11 @@
       <c r="M161" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>707</v>
       </c>
@@ -42179,9 +43068,8 @@
       <c r="G162">
         <v>27587</v>
       </c>
-      <c r="H162" t="e">
-        <f>VLOOKUP(C161,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H162" t="s">
+        <v>1642</v>
       </c>
       <c r="I162" t="s">
         <v>18</v>
@@ -42198,11 +43086,14 @@
       <c r="M162" t="s">
         <v>20</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="P162" s="5" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>713</v>
       </c>
@@ -42243,11 +43134,17 @@
       <c r="M163" t="s">
         <v>20</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O163">
+        <v>1</v>
+      </c>
+      <c r="P163" s="5" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>713</v>
       </c>
@@ -42288,11 +43185,17 @@
       <c r="M164" t="s">
         <v>522</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N164" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O164">
+        <v>1</v>
+      </c>
+      <c r="P164" s="5" t="s">
         <v>1145</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>713</v>
       </c>
@@ -42333,11 +43236,17 @@
       <c r="M165" t="s">
         <v>338</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O165">
+        <v>1</v>
+      </c>
+      <c r="P165" s="5" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>722</v>
       </c>
@@ -42378,8 +43287,11 @@
       <c r="M166" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>728</v>
       </c>
@@ -42401,9 +43313,8 @@
       <c r="G167">
         <v>27610</v>
       </c>
-      <c r="H167" t="e">
-        <f>VLOOKUP(C166,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H167" t="s">
+        <v>1642</v>
       </c>
       <c r="I167" t="s">
         <v>18</v>
@@ -42420,8 +43331,11 @@
       <c r="M167" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>734</v>
       </c>
@@ -42443,9 +43357,8 @@
       <c r="G168">
         <v>27587</v>
       </c>
-      <c r="H168" t="e">
-        <f>VLOOKUP(C167,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H168" t="s">
+        <v>1642</v>
       </c>
       <c r="I168" t="s">
         <v>18</v>
@@ -42462,8 +43375,11 @@
       <c r="M168" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>740</v>
       </c>
@@ -42504,8 +43420,11 @@
       <c r="M169" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N169" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>740</v>
       </c>
@@ -42527,9 +43446,8 @@
       <c r="G170">
         <v>27610</v>
       </c>
-      <c r="H170" t="e">
-        <f>VLOOKUP(C169,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H170" t="s">
+        <v>1642</v>
       </c>
       <c r="I170" t="s">
         <v>18</v>
@@ -42546,8 +43464,14 @@
       <c r="M170" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N170" t="s">
+        <v>1655</v>
+      </c>
+      <c r="O170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>750</v>
       </c>
@@ -42588,8 +43512,11 @@
       <c r="M171" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>755</v>
       </c>
@@ -42630,8 +43557,11 @@
       <c r="M172" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>761</v>
       </c>
@@ -42672,11 +43602,14 @@
       <c r="M173" t="s">
         <v>20</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="P173" s="5" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>767</v>
       </c>
@@ -42717,8 +43650,11 @@
       <c r="M174" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>773</v>
       </c>
@@ -42759,8 +43695,11 @@
       <c r="M175" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>779</v>
       </c>
@@ -42801,11 +43740,14 @@
       <c r="M176" t="s">
         <v>20</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="P176" s="5" t="s">
         <v>1162</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>785</v>
       </c>
@@ -42846,8 +43788,11 @@
       <c r="M177" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>791</v>
       </c>
@@ -42869,9 +43814,8 @@
       <c r="G178">
         <v>27604</v>
       </c>
-      <c r="H178" t="e">
-        <f>VLOOKUP(C177,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H178" t="s">
+        <v>1642</v>
       </c>
       <c r="I178" t="s">
         <v>18</v>
@@ -42888,11 +43832,17 @@
       <c r="M178" t="s">
         <v>20</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" t="s">
+        <v>1656</v>
+      </c>
+      <c r="O178">
+        <v>1</v>
+      </c>
+      <c r="P178" s="5" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>797</v>
       </c>
@@ -42933,8 +43883,11 @@
       <c r="M179" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N179" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>797</v>
       </c>
@@ -42956,9 +43909,8 @@
       <c r="G180">
         <v>27616</v>
       </c>
-      <c r="H180" t="e">
-        <f>VLOOKUP(C179,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H180" t="s">
+        <v>1642</v>
       </c>
       <c r="I180" t="s">
         <v>18</v>
@@ -42975,8 +43927,11 @@
       <c r="M180" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N180" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>797</v>
       </c>
@@ -42998,9 +43953,8 @@
       <c r="G181">
         <v>27610</v>
       </c>
-      <c r="H181" t="e">
-        <f>VLOOKUP(C180,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H181" t="s">
+        <v>1642</v>
       </c>
       <c r="I181" t="s">
         <v>18</v>
@@ -43017,8 +43971,11 @@
       <c r="M181" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N181" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>812</v>
       </c>
@@ -43040,9 +43997,8 @@
       <c r="G182">
         <v>27591</v>
       </c>
-      <c r="H182" t="e">
-        <f>VLOOKUP(C181,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H182" t="s">
+        <v>1642</v>
       </c>
       <c r="I182" t="s">
         <v>18</v>
@@ -43059,8 +44015,11 @@
       <c r="M182" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>818</v>
       </c>
@@ -43101,11 +44060,14 @@
       <c r="M183" t="s">
         <v>20</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="P183" s="5" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>824</v>
       </c>
@@ -43146,11 +44108,17 @@
       <c r="M184" t="s">
         <v>20</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" t="s">
+        <v>1657</v>
+      </c>
+      <c r="O184">
+        <v>1</v>
+      </c>
+      <c r="P184" s="5" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>830</v>
       </c>
@@ -43191,8 +44159,11 @@
       <c r="M185" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>836</v>
       </c>
@@ -43233,8 +44204,11 @@
       <c r="M186" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>842</v>
       </c>
@@ -43275,11 +44249,17 @@
       <c r="M187" t="s">
         <v>20</v>
       </c>
-      <c r="N187" s="5" t="s">
+      <c r="N187" t="s">
+        <v>1658</v>
+      </c>
+      <c r="O187">
+        <v>1</v>
+      </c>
+      <c r="P187" s="5" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>848</v>
       </c>
@@ -43320,8 +44300,11 @@
       <c r="M188" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>854</v>
       </c>
@@ -43362,8 +44345,11 @@
       <c r="M189" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>860</v>
       </c>
@@ -43404,8 +44390,11 @@
       <c r="M190" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N190" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>866</v>
       </c>
@@ -43427,9 +44416,8 @@
       <c r="G191">
         <v>27609</v>
       </c>
-      <c r="H191" t="e">
-        <f>VLOOKUP(C190,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H191" t="s">
+        <v>1642</v>
       </c>
       <c r="I191" t="s">
         <v>18</v>
@@ -43446,8 +44434,11 @@
       <c r="M191" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N191" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>872</v>
       </c>
@@ -43469,9 +44460,8 @@
       <c r="G192">
         <v>27610</v>
       </c>
-      <c r="H192" t="e">
-        <f>VLOOKUP(C191,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H192" t="s">
+        <v>1642</v>
       </c>
       <c r="I192" t="s">
         <v>18</v>
@@ -43488,8 +44478,11 @@
       <c r="M192" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N192" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>878</v>
       </c>
@@ -43511,9 +44504,8 @@
       <c r="G193">
         <v>27609</v>
       </c>
-      <c r="H193" t="e">
-        <f>VLOOKUP(C192,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H193" t="s">
+        <v>1642</v>
       </c>
       <c r="I193" t="s">
         <v>18</v>
@@ -43530,8 +44522,11 @@
       <c r="M193" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N193" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>884</v>
       </c>
@@ -43553,9 +44548,8 @@
       <c r="G194">
         <v>27609</v>
       </c>
-      <c r="H194" t="e">
-        <f>VLOOKUP(C193,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H194" t="s">
+        <v>1642</v>
       </c>
       <c r="I194" t="s">
         <v>18</v>
@@ -43572,11 +44566,14 @@
       <c r="M194" t="s">
         <v>20</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="P194" s="5" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>890</v>
       </c>
@@ -43617,11 +44614,17 @@
       <c r="M195" t="s">
         <v>896</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" t="s">
+        <v>1659</v>
+      </c>
+      <c r="O195">
+        <v>1</v>
+      </c>
+      <c r="P195" s="5" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>897</v>
       </c>
@@ -43662,8 +44665,11 @@
       <c r="M196" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>903</v>
       </c>
@@ -43704,11 +44710,17 @@
       <c r="M197" t="s">
         <v>20</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" t="s">
+        <v>1660</v>
+      </c>
+      <c r="O197">
+        <v>1</v>
+      </c>
+      <c r="P197" s="5" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>909</v>
       </c>
@@ -43749,11 +44761,17 @@
       <c r="M198" t="s">
         <v>20</v>
       </c>
-      <c r="N198" s="5" t="s">
+      <c r="N198" t="s">
+        <v>1661</v>
+      </c>
+      <c r="O198">
+        <v>1</v>
+      </c>
+      <c r="P198" s="5" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>915</v>
       </c>
@@ -43794,8 +44812,11 @@
       <c r="M199" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>921</v>
       </c>
@@ -43838,8 +44859,11 @@
       <c r="M200" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>927</v>
       </c>
@@ -43880,8 +44904,11 @@
       <c r="M201" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>933</v>
       </c>
@@ -43922,8 +44949,11 @@
       <c r="M202" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N202" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>939</v>
       </c>
@@ -43945,9 +44975,8 @@
       <c r="G203">
         <v>27610</v>
       </c>
-      <c r="H203" t="e">
-        <f>VLOOKUP(C202,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H203" t="s">
+        <v>1642</v>
       </c>
       <c r="I203" t="s">
         <v>18</v>
@@ -43964,11 +44993,14 @@
       <c r="M203" t="s">
         <v>20</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="P203" s="5" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>945</v>
       </c>
@@ -44009,8 +45041,11 @@
       <c r="M204" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>951</v>
       </c>
@@ -44051,8 +45086,11 @@
       <c r="M205" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>957</v>
       </c>
@@ -44093,8 +45131,11 @@
       <c r="M206" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N206" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>962</v>
       </c>
@@ -44116,9 +45157,8 @@
       <c r="G207">
         <v>27603</v>
       </c>
-      <c r="H207" t="e">
-        <f>VLOOKUP(C206,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H207" t="s">
+        <v>1642</v>
       </c>
       <c r="I207" t="s">
         <v>18</v>
@@ -44135,8 +45175,11 @@
       <c r="M207" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>968</v>
       </c>
@@ -44177,8 +45220,11 @@
       <c r="M208" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>974</v>
       </c>
@@ -44219,8 +45265,11 @@
       <c r="M209" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>980</v>
       </c>
@@ -44261,11 +45310,14 @@
       <c r="M210" t="s">
         <v>20</v>
       </c>
-      <c r="N210" s="5" t="s">
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="P210" s="5" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>986</v>
       </c>
@@ -44306,8 +45358,11 @@
       <c r="M211" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N211" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>986</v>
       </c>
@@ -44329,9 +45384,8 @@
       <c r="G212">
         <v>27616</v>
       </c>
-      <c r="H212" t="e">
-        <f>VLOOKUP(C211,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H212" t="s">
+        <v>1642</v>
       </c>
       <c r="I212" t="s">
         <v>18</v>
@@ -44348,8 +45402,17 @@
       <c r="M212" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N212" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B213" t="s">
+        <v>1557</v>
+      </c>
       <c r="C213" t="s">
         <v>1506</v>
       </c>
@@ -44365,9 +45428,8 @@
       <c r="G213">
         <v>27312</v>
       </c>
-      <c r="H213" t="e">
-        <f>VLOOKUP(C212,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H213" t="s">
+        <v>1646</v>
       </c>
       <c r="J213" s="16">
         <v>35.724077299999998</v>
@@ -44375,8 +45437,24 @@
       <c r="K213" s="16">
         <v>-79.186323899999991</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L213" t="s">
+        <v>19</v>
+      </c>
+      <c r="M213" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N213" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B214" t="str">
+        <f>CONCATENATE(A214, "FP")</f>
+        <v>C1091FP</v>
+      </c>
       <c r="C214" t="s">
         <v>1335</v>
       </c>
@@ -44392,9 +45470,8 @@
       <c r="G214" s="12" t="s">
         <v>1372</v>
       </c>
-      <c r="H214" t="e">
-        <f>VLOOKUP(C213,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H214" t="s">
+        <v>1644</v>
       </c>
       <c r="J214">
         <v>35.962374230000002</v>
@@ -44408,8 +45485,18 @@
       <c r="M214" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N214" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B215" t="str">
+        <f t="shared" ref="B215:B274" si="0">CONCATENATE(A215, "FP")</f>
+        <v>C1092FP</v>
+      </c>
       <c r="C215" t="s">
         <v>1333</v>
       </c>
@@ -44425,9 +45512,8 @@
       <c r="G215">
         <v>27549</v>
       </c>
-      <c r="H215" t="e">
-        <f>VLOOKUP(C214,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H215" t="s">
+        <v>1644</v>
       </c>
       <c r="J215">
         <v>36.010515609999999</v>
@@ -44441,8 +45527,18 @@
       <c r="M215" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N215" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B216" t="str">
+        <f t="shared" si="0"/>
+        <v>C1093FP</v>
+      </c>
       <c r="C216" t="s">
         <v>1332</v>
       </c>
@@ -44458,9 +45554,8 @@
       <c r="G216">
         <v>27596</v>
       </c>
-      <c r="H216" t="e">
-        <f>VLOOKUP(C215,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H216" t="s">
+        <v>1644</v>
       </c>
       <c r="J216">
         <v>36.019880000000001</v>
@@ -44474,11 +45569,21 @@
       <c r="M216" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N216" t="s">
+      <c r="N216" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P216" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B217" t="str">
+        <f t="shared" si="0"/>
+        <v>C1094FP</v>
+      </c>
       <c r="C217" t="s">
         <v>1328</v>
       </c>
@@ -44494,9 +45599,8 @@
       <c r="G217">
         <v>27596</v>
       </c>
-      <c r="H217" t="e">
-        <f>VLOOKUP(C216,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H217" t="s">
+        <v>1644</v>
       </c>
       <c r="J217">
         <v>36.038735170000002</v>
@@ -44510,11 +45614,21 @@
       <c r="M217" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N217" s="10" t="s">
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="P217" s="10" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B218" t="str">
+        <f t="shared" si="0"/>
+        <v>C1095FP</v>
+      </c>
       <c r="C218" t="s">
         <v>1331</v>
       </c>
@@ -44546,11 +45660,21 @@
       <c r="M218" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N218" t="s">
+      <c r="N218" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P218" t="s">
         <v>1363</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B219" t="str">
+        <f t="shared" si="0"/>
+        <v>C1096FP</v>
+      </c>
       <c r="C219" t="s">
         <v>1327</v>
       </c>
@@ -44566,9 +45690,8 @@
       <c r="G219">
         <v>27525</v>
       </c>
-      <c r="H219" t="e">
-        <f>VLOOKUP(C218,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H219" t="s">
+        <v>1644</v>
       </c>
       <c r="J219">
         <v>36.098219999999998</v>
@@ -44582,11 +45705,21 @@
       <c r="M219" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N219" t="s">
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="P219" t="s">
         <v>1352</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B220" t="str">
+        <f t="shared" si="0"/>
+        <v>C1097FP</v>
+      </c>
       <c r="C220" t="s">
         <v>1319</v>
       </c>
@@ -44619,10 +45752,23 @@
         <v>20</v>
       </c>
       <c r="N220" t="s">
+        <v>1662</v>
+      </c>
+      <c r="O220">
+        <v>1</v>
+      </c>
+      <c r="P220" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B221" t="str">
+        <f t="shared" si="0"/>
+        <v>C1098FP</v>
+      </c>
       <c r="C221" t="s">
         <v>1337</v>
       </c>
@@ -44654,11 +45800,21 @@
       <c r="M221" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N221" t="s">
+      <c r="N221" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P221" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B222" t="str">
+        <f t="shared" si="0"/>
+        <v>C1099FP</v>
+      </c>
       <c r="C222" t="s">
         <v>1329</v>
       </c>
@@ -44674,9 +45830,8 @@
       <c r="G222">
         <v>27525</v>
       </c>
-      <c r="H222" t="e">
-        <f>VLOOKUP(C221,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H222" t="s">
+        <v>1644</v>
       </c>
       <c r="J222">
         <v>36.111489499999998</v>
@@ -44690,11 +45845,21 @@
       <c r="M222" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N222" s="10" t="s">
+      <c r="N222" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P222" s="10" t="s">
         <v>1357</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B223" t="str">
+        <f t="shared" si="0"/>
+        <v>C1100FP</v>
+      </c>
       <c r="C223" t="s">
         <v>1330</v>
       </c>
@@ -44710,9 +45875,8 @@
       <c r="G223">
         <v>27549</v>
       </c>
-      <c r="H223" t="e">
-        <f>VLOOKUP(C222,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H223" t="s">
+        <v>1644</v>
       </c>
       <c r="J223">
         <v>36.114370000000001</v>
@@ -44726,11 +45890,21 @@
       <c r="M223" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N223" t="s">
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="P223" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B224" t="str">
+        <f t="shared" si="0"/>
+        <v>C1101FP</v>
+      </c>
       <c r="C224" t="s">
         <v>1312</v>
       </c>
@@ -44762,8 +45936,18 @@
       <c r="M224" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B225" t="str">
+        <f t="shared" si="0"/>
+        <v>C1102FP</v>
+      </c>
       <c r="C225" t="s">
         <v>1336</v>
       </c>
@@ -44795,8 +45979,18 @@
       <c r="M225" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B226" t="str">
+        <f t="shared" si="0"/>
+        <v>C1103FP</v>
+      </c>
       <c r="C226" t="s">
         <v>1511</v>
       </c>
@@ -44830,8 +46024,18 @@
       <c r="M226" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B227" t="str">
+        <f t="shared" si="0"/>
+        <v>C1104FP</v>
+      </c>
       <c r="C227" t="s">
         <v>1530</v>
       </c>
@@ -44844,9 +46048,8 @@
       <c r="G227">
         <v>27591</v>
       </c>
-      <c r="H227" t="str">
-        <f>VLOOKUP(C226,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>JOHNSTON</v>
+      <c r="H227" t="s">
+        <v>1642</v>
       </c>
       <c r="J227">
         <f>VLOOKUP(C227,[1]Sheet1!$C:$I,7,0)</f>
@@ -44862,11 +46065,21 @@
       <c r="M227" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N227" s="15" t="s">
+      <c r="N227" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P227" s="15" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="228" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B228" t="str">
+        <f t="shared" si="0"/>
+        <v>C1105FP</v>
+      </c>
       <c r="C228" t="s">
         <v>1505</v>
       </c>
@@ -44882,9 +46095,8 @@
       <c r="G228">
         <v>27520</v>
       </c>
-      <c r="H228" t="e">
-        <f>VLOOKUP(C227,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H228" t="s">
+        <v>1645</v>
       </c>
       <c r="J228">
         <f>VLOOKUP(C228,[1]Sheet1!$C:$I,7,0)</f>
@@ -44900,8 +46112,18 @@
       <c r="M228" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N228" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B229" t="str">
+        <f t="shared" si="0"/>
+        <v>C1106FP</v>
+      </c>
       <c r="C229" t="s">
         <v>1512</v>
       </c>
@@ -44917,9 +46139,8 @@
       <c r="G229">
         <v>27520</v>
       </c>
-      <c r="H229" t="e">
-        <f>VLOOKUP(C228,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H229" t="s">
+        <v>1645</v>
       </c>
       <c r="J229">
         <f>VLOOKUP(C229,[1]Sheet1!$C:$I,7,0)</f>
@@ -44935,8 +46156,18 @@
       <c r="M229" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N229" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B230" t="str">
+        <f t="shared" si="0"/>
+        <v>C1107FP</v>
+      </c>
       <c r="C230" t="s">
         <v>1507</v>
       </c>
@@ -44952,9 +46183,8 @@
       <c r="G230">
         <v>27587</v>
       </c>
-      <c r="H230" t="e">
-        <f>VLOOKUP(C229,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H230" t="s">
+        <v>1642</v>
       </c>
       <c r="J230" t="str">
         <f>VLOOKUP(C230,[1]Sheet1!$C:$I,7,0)</f>
@@ -44970,8 +46200,18 @@
       <c r="M230" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B231" t="str">
+        <f t="shared" si="0"/>
+        <v>C1108FP</v>
+      </c>
       <c r="C231" t="s">
         <v>1508</v>
       </c>
@@ -45005,9 +46245,19 @@
       <c r="M231" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N231" s="10"/>
-    </row>
-    <row r="232" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="P231" s="10"/>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B232" t="str">
+        <f t="shared" si="0"/>
+        <v>C1109FP</v>
+      </c>
       <c r="C232" t="s">
         <v>1509</v>
       </c>
@@ -45041,8 +46291,18 @@
       <c r="M232" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B233" t="str">
+        <f t="shared" si="0"/>
+        <v>C1110FP</v>
+      </c>
       <c r="C233" t="s">
         <v>1510</v>
       </c>
@@ -45076,8 +46336,18 @@
       <c r="M233" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B234" t="str">
+        <f t="shared" ref="B234" si="1">CONCATENATE(A234, "SK")</f>
+        <v>C1111SK</v>
+      </c>
       <c r="C234" t="s">
         <v>1384</v>
       </c>
@@ -45090,9 +46360,8 @@
       <c r="G234">
         <v>27707</v>
       </c>
-      <c r="H234" t="str">
-        <f>VLOOKUP(C233,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>WAKE</v>
+      <c r="H234" t="s">
+        <v>1643</v>
       </c>
       <c r="J234">
         <f>VLOOKUP(C234,[1]Sheet1!$C:$I,7,0)</f>
@@ -45108,11 +46377,21 @@
       <c r="M234" t="s">
         <v>1089</v>
       </c>
-      <c r="O234" t="s">
+      <c r="N234" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q234" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="235" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B235" t="str">
+        <f t="shared" si="0"/>
+        <v>C1112FP</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>1165</v>
       </c>
@@ -45128,9 +46407,8 @@
       <c r="G235" s="7">
         <v>27703</v>
       </c>
-      <c r="H235" t="e">
-        <f>VLOOKUP(C234,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H235" t="s">
+        <v>1643</v>
       </c>
       <c r="J235" t="str">
         <f>VLOOKUP(C235,[1]Sheet1!$C:$I,7,0)</f>
@@ -45146,9 +46424,19 @@
       <c r="M235" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N235" s="6"/>
-    </row>
-    <row r="236" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N235" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P235" s="6"/>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B236" t="str">
+        <f t="shared" ref="B236" si="2">CONCATENATE(A236, "SK")</f>
+        <v>C1113SK</v>
+      </c>
       <c r="C236" t="s">
         <v>1385</v>
       </c>
@@ -45164,9 +46452,8 @@
       <c r="G236">
         <v>27707</v>
       </c>
-      <c r="H236" t="e">
-        <f>VLOOKUP(C235,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H236" t="s">
+        <v>1643</v>
       </c>
       <c r="J236">
         <f>VLOOKUP(C236,[1]Sheet1!$C:$I,7,0)</f>
@@ -45182,14 +46469,25 @@
       <c r="M236" t="s">
         <v>1089</v>
       </c>
-      <c r="N236" t="s">
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="P236" t="s">
         <v>1412</v>
       </c>
-      <c r="O236" t="s">
+      <c r="Q236" s="3" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="237" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R236" s="3"/>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B237" t="str">
+        <f t="shared" ref="B237" si="3">CONCATENATE(A237, "SK")</f>
+        <v>C1114SK</v>
+      </c>
       <c r="C237" t="s">
         <v>1386</v>
       </c>
@@ -45223,11 +46521,22 @@
       <c r="M237" t="s">
         <v>1089</v>
       </c>
-      <c r="O237" t="s">
+      <c r="N237" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="Q237" s="3" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="238" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="R237" s="3"/>
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B238" t="str">
+        <f t="shared" si="0"/>
+        <v>C1115FP</v>
+      </c>
       <c r="C238" t="s">
         <v>1387</v>
       </c>
@@ -45243,9 +46552,8 @@
       <c r="G238">
         <v>27707</v>
       </c>
-      <c r="H238" t="e">
-        <f>VLOOKUP(C237,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H238" t="s">
+        <v>1643</v>
       </c>
       <c r="J238">
         <f>VLOOKUP(C238,[1]Sheet1!$C:$I,7,0)</f>
@@ -45261,11 +46569,21 @@
       <c r="M238" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N238" t="s">
+      <c r="N238" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P238" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="239" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B239" t="str">
+        <f t="shared" ref="B239" si="4">CONCATENATE(A239, "SK")</f>
+        <v>C1116SK</v>
+      </c>
       <c r="C239" s="7" t="s">
         <v>1167</v>
       </c>
@@ -45281,9 +46599,8 @@
       <c r="G239" s="7">
         <v>27703</v>
       </c>
-      <c r="H239" t="e">
-        <f>VLOOKUP(C238,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H239" t="s">
+        <v>1643</v>
       </c>
       <c r="J239" t="str">
         <f>VLOOKUP(C239,[1]Sheet1!$C:$I,7,0)</f>
@@ -45299,14 +46616,24 @@
       <c r="M239" t="s">
         <v>1089</v>
       </c>
-      <c r="N239" s="6" t="s">
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="P239" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="O239" s="6" t="s">
+      <c r="Q239" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="240" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B240" t="str">
+        <f t="shared" si="0"/>
+        <v>C1117FP</v>
+      </c>
       <c r="C240" s="7" t="s">
         <v>1169</v>
       </c>
@@ -45322,9 +46649,8 @@
       <c r="G240" s="7">
         <v>27701</v>
       </c>
-      <c r="H240" t="str">
-        <f>VLOOKUP(C239,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>CARTERET</v>
+      <c r="H240" t="s">
+        <v>1643</v>
       </c>
       <c r="J240">
         <f>VLOOKUP(C240,[1]Sheet1!$C:$I,7,0)</f>
@@ -45340,14 +46666,24 @@
       <c r="M240" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N240" s="6" t="s">
+      <c r="N240" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P240" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="O240" s="6" t="s">
+      <c r="Q240" s="6" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="241" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B241" t="str">
+        <f t="shared" si="0"/>
+        <v>C1118FP</v>
+      </c>
       <c r="C241" s="7" t="s">
         <v>1171</v>
       </c>
@@ -45363,9 +46699,8 @@
       <c r="G241" s="7">
         <v>27701</v>
       </c>
-      <c r="H241" t="e">
-        <f>VLOOKUP(C240,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H241" t="s">
+        <v>1643</v>
       </c>
       <c r="J241">
         <f>VLOOKUP(C241,[1]Sheet1!$C:$I,7,0)</f>
@@ -45381,14 +46716,27 @@
       <c r="M241" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N241" s="6" t="s">
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>1</v>
+      </c>
+      <c r="P241" s="6" t="s">
         <v>1257</v>
       </c>
-      <c r="O241" s="6" t="s">
+      <c r="Q241" s="6" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="242" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B242" t="str">
+        <f t="shared" si="0"/>
+        <v>C1119FP</v>
+      </c>
       <c r="C242" s="7" t="s">
         <v>1173</v>
       </c>
@@ -45420,14 +46768,24 @@
       <c r="M242" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N242" s="6" t="s">
+      <c r="N242" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P242" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="O242" s="6" t="s">
+      <c r="Q242" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="243" spans="3:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B243" t="str">
+        <f t="shared" si="0"/>
+        <v>C1120FP</v>
+      </c>
       <c r="C243" s="7" t="s">
         <v>1175</v>
       </c>
@@ -45443,9 +46801,8 @@
       <c r="G243" s="7">
         <v>27704</v>
       </c>
-      <c r="H243" t="e">
-        <f>VLOOKUP(C242,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H243" t="s">
+        <v>1643</v>
       </c>
       <c r="J243">
         <f>VLOOKUP(C243,[1]Sheet1!$C:$I,7,0)</f>
@@ -45461,14 +46818,24 @@
       <c r="M243" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N243" s="6" t="s">
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="P243" s="6" t="s">
         <v>1259</v>
       </c>
-      <c r="O243" s="6" t="s">
+      <c r="Q243" s="6" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="244" spans="3:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B244" t="str">
+        <f t="shared" ref="B244" si="5">CONCATENATE(A244, "SK")</f>
+        <v>C1121SK</v>
+      </c>
       <c r="C244" s="7" t="s">
         <v>1177</v>
       </c>
@@ -45502,14 +46869,24 @@
       <c r="M244" t="s">
         <v>1089</v>
       </c>
-      <c r="N244" s="6" t="s">
+      <c r="N244" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P244" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="O244" s="6" t="s">
+      <c r="Q244" s="6" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="245" spans="3:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="0"/>
+        <v>C1122FP</v>
+      </c>
       <c r="C245" s="7" t="s">
         <v>1179</v>
       </c>
@@ -45525,9 +46902,8 @@
       <c r="G245" s="7">
         <v>27701</v>
       </c>
-      <c r="H245" t="e">
-        <f>VLOOKUP(C244,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H245" t="s">
+        <v>1643</v>
       </c>
       <c r="J245">
         <f>VLOOKUP(C245,[1]Sheet1!$C:$I,7,0)</f>
@@ -45543,12 +46919,25 @@
       <c r="M245" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N245" s="6" t="s">
+      <c r="N245" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O245">
+        <v>1</v>
+      </c>
+      <c r="P245" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="O245" s="6"/>
-    </row>
-    <row r="246" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q245" s="6"/>
+    </row>
+    <row r="246" spans="1:17" ht="64" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="0"/>
+        <v>C1123FP</v>
+      </c>
       <c r="C246" s="7" t="s">
         <v>1181</v>
       </c>
@@ -45564,9 +46953,8 @@
       <c r="G246" s="7">
         <v>27703</v>
       </c>
-      <c r="H246" t="e">
-        <f>VLOOKUP(C245,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H246" t="s">
+        <v>1643</v>
       </c>
       <c r="J246">
         <f>VLOOKUP(C246,[1]Sheet1!$C:$I,7,0)</f>
@@ -45582,14 +46970,24 @@
       <c r="M246" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N246" s="6" t="s">
+      <c r="N246" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="P246" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="O246" s="6" t="s">
+      <c r="Q246" s="6" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="247" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="0"/>
+        <v>C1124FP</v>
+      </c>
       <c r="C247" s="7" t="s">
         <v>1183</v>
       </c>
@@ -45605,9 +47003,8 @@
       <c r="G247" s="7">
         <v>27701</v>
       </c>
-      <c r="H247" t="e">
-        <f>VLOOKUP(C246,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H247" t="s">
+        <v>1643</v>
       </c>
       <c r="J247">
         <f>VLOOKUP(C247,[1]Sheet1!$C:$I,7,0)</f>
@@ -45623,12 +47020,25 @@
       <c r="M247" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N247" s="6"/>
-      <c r="O247" s="6" t="s">
+      <c r="N247" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O247">
+        <v>1</v>
+      </c>
+      <c r="P247" s="6"/>
+      <c r="Q247" s="6" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="248" spans="3:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" ref="B248" si="6">CONCATENATE(A248, "SK")</f>
+        <v>C1125SK</v>
+      </c>
       <c r="C248" s="7" t="s">
         <v>1185</v>
       </c>
@@ -45644,9 +47054,8 @@
       <c r="G248" s="7">
         <v>27704</v>
       </c>
-      <c r="H248" t="e">
-        <f>VLOOKUP(C247,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H248" t="s">
+        <v>1643</v>
       </c>
       <c r="J248">
         <f>VLOOKUP(C248,[1]Sheet1!$C:$I,7,0)</f>
@@ -45662,14 +47071,27 @@
       <c r="M248" t="s">
         <v>1089</v>
       </c>
-      <c r="N248" s="6" t="s">
+      <c r="N248" t="s">
+        <v>1663</v>
+      </c>
+      <c r="O248">
+        <v>1</v>
+      </c>
+      <c r="P248" s="6" t="s">
         <v>1309</v>
       </c>
-      <c r="O248" s="6" t="s">
+      <c r="Q248" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="249" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="0"/>
+        <v>C1126FP</v>
+      </c>
       <c r="C249" t="s">
         <v>1388</v>
       </c>
@@ -45703,11 +47125,21 @@
       <c r="M249" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N249" t="s">
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="P249" t="s">
         <v>1423</v>
       </c>
     </row>
-    <row r="250" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="0"/>
+        <v>C1127FP</v>
+      </c>
       <c r="C250" t="s">
         <v>1389</v>
       </c>
@@ -45741,8 +47173,18 @@
       <c r="M250" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="3:15" ht="48" x14ac:dyDescent="0.2">
+      <c r="N250" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="0"/>
+        <v>C1128FP</v>
+      </c>
       <c r="C251" s="7" t="s">
         <v>1187</v>
       </c>
@@ -45758,9 +47200,8 @@
       <c r="G251" s="7">
         <v>27703</v>
       </c>
-      <c r="H251" t="e">
-        <f>VLOOKUP(C250,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H251" t="s">
+        <v>1643</v>
       </c>
       <c r="J251">
         <f>VLOOKUP(C251,[1]Sheet1!$C:$I,7,0)</f>
@@ -45776,12 +47217,25 @@
       <c r="M251" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N251" s="6"/>
-      <c r="O251" s="6" t="s">
+      <c r="N251" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="O251">
+        <v>1</v>
+      </c>
+      <c r="P251" s="6"/>
+      <c r="Q251" s="6" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="252" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="0"/>
+        <v>C1129FP</v>
+      </c>
       <c r="C252" s="7" t="s">
         <v>1189</v>
       </c>
@@ -45797,9 +47251,8 @@
       <c r="G252" s="7">
         <v>27704</v>
       </c>
-      <c r="H252" t="e">
-        <f>VLOOKUP(C251,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H252" t="s">
+        <v>1643</v>
       </c>
       <c r="J252">
         <f>VLOOKUP(C252,[1]Sheet1!$C:$I,7,0)</f>
@@ -45815,14 +47268,27 @@
       <c r="M252" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N252" s="6" t="s">
+      <c r="N252" t="s">
+        <v>1664</v>
+      </c>
+      <c r="O252">
+        <v>1</v>
+      </c>
+      <c r="P252" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="O252" s="6" t="s">
+      <c r="Q252" s="6" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="253" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="0"/>
+        <v>C1130FP</v>
+      </c>
       <c r="C253" s="7" t="s">
         <v>1191</v>
       </c>
@@ -45838,9 +47304,8 @@
       <c r="G253" s="7">
         <v>27704</v>
       </c>
-      <c r="H253" t="str">
-        <f>VLOOKUP(C252,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>DURHAM</v>
+      <c r="H253" t="s">
+        <v>1643</v>
       </c>
       <c r="J253">
         <f>VLOOKUP(C253,[1]Sheet1!$C:$I,7,0)</f>
@@ -45856,10 +47321,19 @@
       <c r="M253" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N253" s="6"/>
-      <c r="O253" s="6"/>
-    </row>
-    <row r="254" spans="3:15" ht="112" x14ac:dyDescent="0.2">
+      <c r="N253" s="8"/>
+      <c r="O253" s="8"/>
+      <c r="P253" s="6"/>
+      <c r="Q253" s="6"/>
+    </row>
+    <row r="254" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="0"/>
+        <v>C1131FP</v>
+      </c>
       <c r="C254" s="7" t="s">
         <v>1193</v>
       </c>
@@ -45875,9 +47349,8 @@
       <c r="G254" s="7">
         <v>27701</v>
       </c>
-      <c r="H254" t="e">
-        <f>VLOOKUP(C253,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H254" t="s">
+        <v>1643</v>
       </c>
       <c r="J254">
         <f>VLOOKUP(C254,[1]Sheet1!$C:$I,7,0)</f>
@@ -45893,14 +47366,23 @@
       <c r="M254" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N254" s="6" t="s">
+      <c r="N254" s="8"/>
+      <c r="O254" s="8"/>
+      <c r="P254" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="O254" s="6" t="s">
+      <c r="Q254" s="6" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="255" spans="3:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="0"/>
+        <v>C1132FP</v>
+      </c>
       <c r="C255" s="7" t="s">
         <v>1427</v>
       </c>
@@ -45914,9 +47396,8 @@
       <c r="G255" s="7">
         <v>27703</v>
       </c>
-      <c r="H255" t="e">
-        <f>VLOOKUP(C254,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H255" t="s">
+        <v>1643</v>
       </c>
       <c r="J255">
         <f>VLOOKUP(C255,[1]Sheet1!$C:$I,7,0)</f>
@@ -45932,14 +47413,23 @@
       <c r="M255" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N255" s="6" t="s">
+      <c r="N255" s="8"/>
+      <c r="O255" s="8"/>
+      <c r="P255" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="O255" s="6" t="s">
+      <c r="Q255" s="6" t="s">
         <v>1278</v>
       </c>
     </row>
-    <row r="256" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="0"/>
+        <v>C1133FP</v>
+      </c>
       <c r="C256" t="s">
         <v>1390</v>
       </c>
@@ -45952,9 +47442,8 @@
       <c r="G256">
         <v>27707</v>
       </c>
-      <c r="H256" t="e">
-        <f>VLOOKUP(C255,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H256" t="s">
+        <v>1643</v>
       </c>
       <c r="J256">
         <f>VLOOKUP(C256,[1]Sheet1!$C:$I,7,0)</f>
@@ -45970,14 +47459,23 @@
       <c r="M256" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N256" t="s">
+      <c r="N256" s="8"/>
+      <c r="O256" s="8"/>
+      <c r="P256" t="s">
         <v>1431</v>
       </c>
-      <c r="O256" t="s">
+      <c r="Q256" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="257" spans="3:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="0"/>
+        <v>C1134FP</v>
+      </c>
       <c r="C257" s="7" t="s">
         <v>1196</v>
       </c>
@@ -45993,9 +47491,8 @@
       <c r="G257" s="7">
         <v>27703</v>
       </c>
-      <c r="H257" t="e">
-        <f>VLOOKUP(C256,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H257" t="s">
+        <v>1643</v>
       </c>
       <c r="J257">
         <f>VLOOKUP(C257,[1]Sheet1!$C:$I,7,0)</f>
@@ -46011,14 +47508,25 @@
       <c r="M257" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N257" s="6" t="s">
+      <c r="N257" s="8"/>
+      <c r="O257" s="8">
+        <v>1</v>
+      </c>
+      <c r="P257" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="O257" s="6" t="s">
+      <c r="Q257" s="6" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="258" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="0"/>
+        <v>C1135FP</v>
+      </c>
       <c r="C258" t="s">
         <v>1391</v>
       </c>
@@ -46031,9 +47539,8 @@
       <c r="G258" s="11">
         <v>27705</v>
       </c>
-      <c r="H258" t="e">
-        <f>VLOOKUP(C257,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H258" t="s">
+        <v>1643</v>
       </c>
       <c r="J258" t="str">
         <f>VLOOKUP(C258,[1]Sheet1!$C:$I,7,0)</f>
@@ -46049,8 +47556,17 @@
       <c r="M258" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="259" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N258" s="8"/>
+      <c r="O258" s="8"/>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B260" si="7">CONCATENATE(A259, "SK")</f>
+        <v>C1136SK</v>
+      </c>
       <c r="C259" t="s">
         <v>1392</v>
       </c>
@@ -46066,9 +47582,8 @@
       <c r="G259">
         <v>27707</v>
       </c>
-      <c r="H259" t="e">
-        <f>VLOOKUP(C258,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H259" t="s">
+        <v>1643</v>
       </c>
       <c r="J259">
         <f>VLOOKUP(C259,[1]Sheet1!$C:$I,7,0)</f>
@@ -46084,11 +47599,18 @@
       <c r="M259" t="s">
         <v>1089</v>
       </c>
-      <c r="N259" t="s">
+      <c r="P259" t="s">
         <v>1438</v>
       </c>
     </row>
-    <row r="260" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="7"/>
+        <v>C1137SK</v>
+      </c>
       <c r="C260" t="s">
         <v>1393</v>
       </c>
@@ -46104,9 +47626,8 @@
       <c r="G260">
         <v>27707</v>
       </c>
-      <c r="H260" t="e">
-        <f>VLOOKUP(C259,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H260" t="s">
+        <v>1643</v>
       </c>
       <c r="J260">
         <f>VLOOKUP(C260,[1]Sheet1!$C:$I,7,0)</f>
@@ -46122,11 +47643,18 @@
       <c r="M260" t="s">
         <v>1089</v>
       </c>
-      <c r="O260" t="s">
+      <c r="Q260" t="s">
         <v>1442</v>
       </c>
     </row>
-    <row r="261" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="0"/>
+        <v>C1138FP</v>
+      </c>
       <c r="C261" t="s">
         <v>1394</v>
       </c>
@@ -46142,9 +47670,8 @@
       <c r="G261">
         <v>27705</v>
       </c>
-      <c r="H261" t="e">
-        <f>VLOOKUP(C260,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H261" t="s">
+        <v>1643</v>
       </c>
       <c r="J261">
         <f>VLOOKUP(C261,[1]Sheet1!$C:$I,7,0)</f>
@@ -46160,14 +47687,23 @@
       <c r="M261" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N261" t="s">
+      <c r="N261" s="8"/>
+      <c r="O261" s="8"/>
+      <c r="P261" t="s">
         <v>1446</v>
       </c>
-      <c r="O261" t="s">
+      <c r="Q261" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="262" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="0"/>
+        <v>C1139FP</v>
+      </c>
       <c r="C262" t="s">
         <v>1395</v>
       </c>
@@ -46183,9 +47719,8 @@
       <c r="G262">
         <v>27705</v>
       </c>
-      <c r="H262" t="e">
-        <f>VLOOKUP(C261,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H262" t="s">
+        <v>1643</v>
       </c>
       <c r="J262">
         <f>VLOOKUP(C262,[1]Sheet1!$C:$I,7,0)</f>
@@ -46201,11 +47736,20 @@
       <c r="M262" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N262" t="s">
+      <c r="N262" s="8"/>
+      <c r="O262" s="8"/>
+      <c r="P262" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="263" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="0"/>
+        <v>C1140FP</v>
+      </c>
       <c r="C263" s="7" t="s">
         <v>1198</v>
       </c>
@@ -46221,9 +47765,8 @@
       <c r="G263" s="7">
         <v>27701</v>
       </c>
-      <c r="H263" t="e">
-        <f>VLOOKUP(C262,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H263" t="s">
+        <v>1643</v>
       </c>
       <c r="J263" t="str">
         <f>VLOOKUP(C263,[1]Sheet1!$C:$I,7,0)</f>
@@ -46239,12 +47782,21 @@
       <c r="M263" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N263" s="6" t="s">
+      <c r="N263" s="8"/>
+      <c r="O263" s="8"/>
+      <c r="P263" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="O263" s="6"/>
-    </row>
-    <row r="264" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="Q263" s="6"/>
+    </row>
+    <row r="264" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="0"/>
+        <v>C1141FP</v>
+      </c>
       <c r="C264" s="7" t="s">
         <v>1200</v>
       </c>
@@ -46260,9 +47812,8 @@
       <c r="G264" s="7">
         <v>27704</v>
       </c>
-      <c r="H264" t="e">
-        <f>VLOOKUP(C263,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H264" t="s">
+        <v>1643</v>
       </c>
       <c r="J264">
         <f>VLOOKUP(C264,[1]Sheet1!$C:$I,7,0)</f>
@@ -46278,12 +47829,21 @@
       <c r="M264" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N264" s="6" t="s">
+      <c r="N264" s="8"/>
+      <c r="O264" s="8"/>
+      <c r="P264" s="6" t="s">
         <v>1263</v>
       </c>
-      <c r="O264" s="6"/>
-    </row>
-    <row r="265" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q264" s="6"/>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="0"/>
+        <v>C1142FP</v>
+      </c>
       <c r="C265" t="s">
         <v>1396</v>
       </c>
@@ -46299,9 +47859,8 @@
       <c r="G265">
         <v>27707</v>
       </c>
-      <c r="H265" t="e">
-        <f>VLOOKUP(C264,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H265" t="s">
+        <v>1643</v>
       </c>
       <c r="J265">
         <f>VLOOKUP(C265,[1]Sheet1!$C:$I,7,0)</f>
@@ -46317,11 +47876,20 @@
       <c r="M265" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N265" t="s">
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
+      <c r="P265" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="266" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="0"/>
+        <v>C1143FP</v>
+      </c>
       <c r="C266" t="s">
         <v>1397</v>
       </c>
@@ -46334,9 +47902,8 @@
       <c r="F266" t="s">
         <v>1454</v>
       </c>
-      <c r="H266" t="e">
-        <f>VLOOKUP(C265,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H266" t="s">
+        <v>1643</v>
       </c>
       <c r="J266">
         <f>VLOOKUP(C266,[1]Sheet1!$C:$I,7,0)</f>
@@ -46352,14 +47919,23 @@
       <c r="M266" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N266" t="s">
+      <c r="N266" s="8"/>
+      <c r="O266" s="8"/>
+      <c r="P266" t="s">
         <v>1262</v>
       </c>
-      <c r="O266" t="s">
+      <c r="Q266" t="s">
         <v>1457</v>
       </c>
     </row>
-    <row r="267" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="0"/>
+        <v>C1144FP</v>
+      </c>
       <c r="C267" t="s">
         <v>1398</v>
       </c>
@@ -46375,9 +47951,8 @@
       <c r="G267">
         <v>27712</v>
       </c>
-      <c r="H267" t="e">
-        <f>VLOOKUP(C266,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H267" t="s">
+        <v>1643</v>
       </c>
       <c r="J267">
         <f>VLOOKUP(C267,[1]Sheet1!$C:$I,7,0)</f>
@@ -46393,11 +47968,20 @@
       <c r="M267" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N267" t="s">
+      <c r="N267" s="8"/>
+      <c r="O267" s="8"/>
+      <c r="P267" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="268" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="0"/>
+        <v>C1145FP</v>
+      </c>
       <c r="C268" t="s">
         <v>1399</v>
       </c>
@@ -46413,9 +47997,8 @@
       <c r="G268">
         <v>27712</v>
       </c>
-      <c r="H268" t="e">
-        <f>VLOOKUP(C267,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H268" t="s">
+        <v>1643</v>
       </c>
       <c r="J268">
         <f>VLOOKUP(C268,[1]Sheet1!$C:$I,7,0)</f>
@@ -46431,11 +48014,20 @@
       <c r="M268" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N268" s="13" t="s">
+      <c r="N268" s="8"/>
+      <c r="O268" s="8"/>
+      <c r="P268" s="13" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="269" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="0"/>
+        <v>C1146FP</v>
+      </c>
       <c r="C269" s="7" t="s">
         <v>1202</v>
       </c>
@@ -46451,9 +48043,8 @@
       <c r="G269" s="7">
         <v>27701</v>
       </c>
-      <c r="H269" t="e">
-        <f>VLOOKUP(C268,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H269" t="s">
+        <v>1643</v>
       </c>
       <c r="J269">
         <f>VLOOKUP(C269,[1]Sheet1!$C:$I,7,0)</f>
@@ -46469,14 +48060,23 @@
       <c r="M269" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N269" s="6" t="s">
+      <c r="N269" s="8"/>
+      <c r="O269" s="8"/>
+      <c r="P269" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="O269" s="6" t="s">
+      <c r="Q269" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="270" spans="3:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="0"/>
+        <v>C1147FP</v>
+      </c>
       <c r="C270" s="7" t="s">
         <v>1204</v>
       </c>
@@ -46492,9 +48092,8 @@
       <c r="G270" s="7">
         <v>27704</v>
       </c>
-      <c r="H270" t="e">
-        <f>VLOOKUP(C269,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H270" t="s">
+        <v>1643</v>
       </c>
       <c r="J270">
         <f>VLOOKUP(C270,[1]Sheet1!$C:$I,7,0)</f>
@@ -46510,14 +48109,23 @@
       <c r="M270" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N270" s="6" t="s">
+      <c r="N270" s="8"/>
+      <c r="O270" s="8"/>
+      <c r="P270" s="6" t="s">
         <v>1265</v>
       </c>
-      <c r="O270" s="6" t="s">
+      <c r="Q270" s="6" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="271" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="0"/>
+        <v>C1148FP</v>
+      </c>
       <c r="C271" s="7" t="s">
         <v>1206</v>
       </c>
@@ -46533,9 +48141,8 @@
       <c r="G271" s="7">
         <v>27713</v>
       </c>
-      <c r="H271" t="e">
-        <f>VLOOKUP(C270,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H271" t="s">
+        <v>1643</v>
       </c>
       <c r="J271">
         <f>VLOOKUP(C271,[1]Sheet1!$C:$I,7,0)</f>
@@ -46551,14 +48158,23 @@
       <c r="M271" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N271" s="6" t="s">
+      <c r="N271" s="8"/>
+      <c r="O271" s="8"/>
+      <c r="P271" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="O271" s="6" t="s">
+      <c r="Q271" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="272" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="0"/>
+        <v>C1149FP</v>
+      </c>
       <c r="C272" s="7" t="s">
         <v>1208</v>
       </c>
@@ -46574,9 +48190,8 @@
       <c r="G272" s="7">
         <v>27713</v>
       </c>
-      <c r="H272" t="str">
-        <f>VLOOKUP(C271,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>DURHAM</v>
+      <c r="H272" t="s">
+        <v>1643</v>
       </c>
       <c r="J272">
         <f>VLOOKUP(C272,[1]Sheet1!$C:$I,7,0)</f>
@@ -46592,14 +48207,23 @@
       <c r="M272" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N272" s="6" t="s">
+      <c r="N272" s="8"/>
+      <c r="O272" s="8"/>
+      <c r="P272" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="O272" s="6" t="s">
+      <c r="Q272" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="273" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="0"/>
+        <v>C1150FP</v>
+      </c>
       <c r="C273" t="s">
         <v>1400</v>
       </c>
@@ -46609,9 +48233,8 @@
       <c r="E273" t="s">
         <v>1462</v>
       </c>
-      <c r="H273" t="e">
-        <f>VLOOKUP(C272,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H273" t="s">
+        <v>1643</v>
       </c>
       <c r="L273" t="s">
         <v>19</v>
@@ -46619,11 +48242,20 @@
       <c r="M273" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N273" t="s">
+      <c r="N273" s="8"/>
+      <c r="O273" s="8"/>
+      <c r="P273" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="274" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="0"/>
+        <v>C1151FP</v>
+      </c>
       <c r="C274" s="7" t="s">
         <v>1209</v>
       </c>
@@ -46639,9 +48271,8 @@
       <c r="G274" s="7">
         <v>27701</v>
       </c>
-      <c r="H274" t="e">
-        <f>VLOOKUP(C273,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H274" t="s">
+        <v>1643</v>
       </c>
       <c r="J274">
         <f>VLOOKUP(C274,[1]Sheet1!$C:$I,7,0)</f>
@@ -46657,14 +48288,23 @@
       <c r="M274" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N274" s="6" t="s">
+      <c r="N274" s="8"/>
+      <c r="O274" s="8"/>
+      <c r="P274" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="O274" s="6" t="s">
+      <c r="Q274" s="6" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="275" spans="3:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" ref="B275:B279" si="8">CONCATENATE(A275, "SK")</f>
+        <v>C1152SK</v>
+      </c>
       <c r="C275" s="7" t="s">
         <v>1211</v>
       </c>
@@ -46680,9 +48320,8 @@
       <c r="G275" s="7">
         <v>27701</v>
       </c>
-      <c r="H275" t="str">
-        <f>VLOOKUP(C274,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>DURHAM</v>
+      <c r="H275" t="s">
+        <v>1643</v>
       </c>
       <c r="J275">
         <f>VLOOKUP(C275,[1]Sheet1!$C:$I,7,0)</f>
@@ -46698,14 +48337,21 @@
       <c r="M275" t="s">
         <v>1089</v>
       </c>
-      <c r="N275" s="6" t="s">
+      <c r="P275" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="O275" s="6" t="s">
+      <c r="Q275" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="276" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" ht="48" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="8"/>
+        <v>C1153SK</v>
+      </c>
       <c r="C276" s="7" t="s">
         <v>1213</v>
       </c>
@@ -46721,9 +48367,8 @@
       <c r="G276" s="7">
         <v>27713</v>
       </c>
-      <c r="H276" t="e">
-        <f>VLOOKUP(C275,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H276" t="s">
+        <v>1643</v>
       </c>
       <c r="J276" t="str">
         <f>VLOOKUP(C276,[1]Sheet1!$C:$I,7,0)</f>
@@ -46739,12 +48384,19 @@
       <c r="M276" t="s">
         <v>1089</v>
       </c>
-      <c r="N276" s="6"/>
-      <c r="O276" s="6" t="s">
+      <c r="P276" s="6"/>
+      <c r="Q276" s="6" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="277" spans="3:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="8"/>
+        <v>C1154SK</v>
+      </c>
       <c r="C277" s="7" t="s">
         <v>1215</v>
       </c>
@@ -46760,9 +48412,8 @@
       <c r="G277" s="7">
         <v>27704</v>
       </c>
-      <c r="H277" t="e">
-        <f>VLOOKUP(C276,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H277" t="s">
+        <v>1643</v>
       </c>
       <c r="J277">
         <f>VLOOKUP(C277,[1]Sheet1!$C:$I,7,0)</f>
@@ -46778,14 +48429,21 @@
       <c r="M277" t="s">
         <v>1089</v>
       </c>
-      <c r="N277" s="6" t="s">
+      <c r="P277" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="O277" s="6" t="s">
+      <c r="Q277" s="6" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="278" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="8"/>
+        <v>C1155SK</v>
+      </c>
       <c r="C278" t="s">
         <v>1401</v>
       </c>
@@ -46801,9 +48459,8 @@
       <c r="G278">
         <v>27707</v>
       </c>
-      <c r="H278" t="str">
-        <f>VLOOKUP(C277,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>DURHAM</v>
+      <c r="H278" t="s">
+        <v>1643</v>
       </c>
       <c r="J278">
         <f>VLOOKUP(C278,[1]Sheet1!$C:$I,7,0)</f>
@@ -46819,14 +48476,21 @@
       <c r="M278" t="s">
         <v>1089</v>
       </c>
-      <c r="N278" t="s">
+      <c r="P278" t="s">
         <v>1412</v>
       </c>
-      <c r="O278" t="s">
+      <c r="Q278" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="279" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="8"/>
+        <v>C1156SK</v>
+      </c>
       <c r="C279" t="s">
         <v>1402</v>
       </c>
@@ -46842,9 +48506,8 @@
       <c r="G279">
         <v>27705</v>
       </c>
-      <c r="H279" t="e">
-        <f>VLOOKUP(C278,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H279" t="s">
+        <v>1643</v>
       </c>
       <c r="J279">
         <f>VLOOKUP(C279,[1]Sheet1!$C:$I,7,0)</f>
@@ -46860,11 +48523,18 @@
       <c r="M279" t="s">
         <v>1089</v>
       </c>
-      <c r="O279" t="s">
+      <c r="Q279" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="280" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" ref="B280:B296" si="9">CONCATENATE(A280, "FP")</f>
+        <v>C1157FP</v>
+      </c>
       <c r="C280" t="s">
         <v>1403</v>
       </c>
@@ -46880,9 +48550,8 @@
       <c r="G280">
         <v>27705</v>
       </c>
-      <c r="H280" t="e">
-        <f>VLOOKUP(C279,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H280" t="s">
+        <v>1643</v>
       </c>
       <c r="J280">
         <f>VLOOKUP(C280,[1]Sheet1!$C:$I,7,0)</f>
@@ -46898,11 +48567,20 @@
       <c r="M280" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O280" t="s">
+      <c r="N280" s="8"/>
+      <c r="O280" s="8"/>
+      <c r="Q280" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="281" spans="3:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="9"/>
+        <v>C1158FP</v>
+      </c>
       <c r="C281" s="7" t="s">
         <v>1217</v>
       </c>
@@ -46918,9 +48596,8 @@
       <c r="G281" s="7">
         <v>27701</v>
       </c>
-      <c r="H281" t="e">
-        <f>VLOOKUP(C280,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H281" t="s">
+        <v>1643</v>
       </c>
       <c r="J281" t="str">
         <f>VLOOKUP(C281,[1]Sheet1!$C:$I,7,0)</f>
@@ -46936,12 +48613,21 @@
       <c r="M281" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N281" s="6" t="s">
+      <c r="N281" s="8"/>
+      <c r="O281" s="8"/>
+      <c r="P281" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="O281" s="6"/>
-    </row>
-    <row r="282" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="Q281" s="6"/>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="9"/>
+        <v>C1159FP</v>
+      </c>
       <c r="C282" t="s">
         <v>1404</v>
       </c>
@@ -46957,9 +48643,8 @@
       <c r="G282">
         <v>27707</v>
       </c>
-      <c r="H282" t="e">
-        <f>VLOOKUP(C281,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H282" t="s">
+        <v>1643</v>
       </c>
       <c r="J282" t="str">
         <f>VLOOKUP(C282,[1]Sheet1!$C:$I,7,0)</f>
@@ -46975,14 +48660,23 @@
       <c r="M282" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N282" t="s">
+      <c r="N282" s="8"/>
+      <c r="O282" s="8"/>
+      <c r="P282" t="s">
         <v>1412</v>
       </c>
-      <c r="O282" t="s">
+      <c r="Q282" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="283" spans="3:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="9"/>
+        <v>C1160FP</v>
+      </c>
       <c r="C283" s="7" t="s">
         <v>1219</v>
       </c>
@@ -46998,9 +48692,8 @@
       <c r="G283" s="7">
         <v>27701</v>
       </c>
-      <c r="H283" t="e">
-        <f>VLOOKUP(C282,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H283" t="s">
+        <v>1643</v>
       </c>
       <c r="J283">
         <f>VLOOKUP(C283,[1]Sheet1!$C:$I,7,0)</f>
@@ -47016,12 +48709,21 @@
       <c r="M283" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N283" s="6"/>
-      <c r="O283" s="6" t="s">
+      <c r="N283" s="8"/>
+      <c r="O283" s="8"/>
+      <c r="P283" s="6"/>
+      <c r="Q283" s="6" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="284" spans="3:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" ht="112" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="9"/>
+        <v>C1161FP</v>
+      </c>
       <c r="C284" s="7" t="s">
         <v>1221</v>
       </c>
@@ -47037,9 +48739,8 @@
       <c r="G284" s="7">
         <v>27701</v>
       </c>
-      <c r="H284" t="e">
-        <f>VLOOKUP(C283,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H284" t="s">
+        <v>1643</v>
       </c>
       <c r="J284">
         <f>VLOOKUP(C284,[1]Sheet1!$C:$I,7,0)</f>
@@ -47055,11 +48756,22 @@
       <c r="M284" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O284" s="6" t="s">
+      <c r="N284" s="8"/>
+      <c r="O284" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q284" s="6" t="s">
         <v>1282</v>
       </c>
     </row>
-    <row r="285" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="9"/>
+        <v>C1162FP</v>
+      </c>
       <c r="C285" t="s">
         <v>1405</v>
       </c>
@@ -47075,9 +48787,8 @@
       <c r="G285">
         <v>27705</v>
       </c>
-      <c r="H285" t="e">
-        <f>VLOOKUP(C284,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H285" t="s">
+        <v>1643</v>
       </c>
       <c r="J285" t="str">
         <f>VLOOKUP(C285,[1]Sheet1!$C:$I,7,0)</f>
@@ -47093,11 +48804,20 @@
       <c r="M285" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N285" t="s">
+      <c r="N285" s="8"/>
+      <c r="O285" s="8"/>
+      <c r="P285" t="s">
         <v>1478</v>
       </c>
     </row>
-    <row r="286" spans="3:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B286" t="str">
+        <f>CONCATENATE(A286, "SK")</f>
+        <v>C1163SK</v>
+      </c>
       <c r="C286" s="7" t="s">
         <v>1223</v>
       </c>
@@ -47113,9 +48833,8 @@
       <c r="G286" s="7">
         <v>27701</v>
       </c>
-      <c r="H286" t="e">
-        <f>VLOOKUP(C285,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H286" t="s">
+        <v>1643</v>
       </c>
       <c r="J286">
         <f>VLOOKUP(C286,[1]Sheet1!$C:$I,7,0)</f>
@@ -47131,11 +48850,18 @@
       <c r="M286" t="s">
         <v>1089</v>
       </c>
-      <c r="O286" s="6" t="s">
+      <c r="Q286" s="6" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="287" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="9"/>
+        <v>C1164FP</v>
+      </c>
       <c r="C287" t="s">
         <v>1406</v>
       </c>
@@ -47151,9 +48877,8 @@
       <c r="G287">
         <v>27707</v>
       </c>
-      <c r="H287" t="e">
-        <f>VLOOKUP(C286,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H287" t="s">
+        <v>1643</v>
       </c>
       <c r="J287">
         <f>VLOOKUP(C287,[1]Sheet1!$C:$I,7,0)</f>
@@ -47169,14 +48894,23 @@
       <c r="M287" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N287" t="s">
+      <c r="N287" s="8"/>
+      <c r="O287" s="8"/>
+      <c r="P287" t="s">
         <v>1256</v>
       </c>
-      <c r="O287" t="s">
+      <c r="Q287" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="288" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B288" t="str">
+        <f>CONCATENATE(A288, "SK")</f>
+        <v>C1165SK</v>
+      </c>
       <c r="C288" t="s">
         <v>1407</v>
       </c>
@@ -47210,11 +48944,18 @@
       <c r="M288" t="s">
         <v>1089</v>
       </c>
-      <c r="O288" t="s">
+      <c r="Q288" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="289" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="9"/>
+        <v>C1166FP</v>
+      </c>
       <c r="C289" t="s">
         <v>1315</v>
       </c>
@@ -47230,9 +48971,8 @@
       <c r="G289">
         <v>27508</v>
       </c>
-      <c r="H289" t="e">
-        <f>VLOOKUP(C288,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H289" t="s">
+        <v>1644</v>
       </c>
       <c r="J289">
         <f>VLOOKUP(C289,[1]Sheet1!$C:$I,7,0)</f>
@@ -47248,11 +48988,20 @@
       <c r="M289" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N289" t="s">
+      <c r="N289" s="8"/>
+      <c r="O289" s="8"/>
+      <c r="P289" t="s">
         <v>1318</v>
       </c>
     </row>
-    <row r="290" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="9"/>
+        <v>C1167FP</v>
+      </c>
       <c r="C290" t="s">
         <v>1323</v>
       </c>
@@ -47268,9 +49017,8 @@
       <c r="G290">
         <v>27596</v>
       </c>
-      <c r="H290" t="e">
-        <f>VLOOKUP(C289,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H290" t="s">
+        <v>1644</v>
       </c>
       <c r="J290">
         <f>VLOOKUP(C290,[1]Sheet1!$C:$I,7,0)</f>
@@ -47286,11 +49034,20 @@
       <c r="M290" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N290" t="s">
+      <c r="N290" s="8"/>
+      <c r="O290" s="8"/>
+      <c r="P290" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="291" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="9"/>
+        <v>C1168FP</v>
+      </c>
       <c r="C291" t="s">
         <v>1324</v>
       </c>
@@ -47306,9 +49063,8 @@
       <c r="G291">
         <v>27597</v>
       </c>
-      <c r="H291" t="e">
-        <f>VLOOKUP(C290,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H291" t="s">
+        <v>1642</v>
       </c>
       <c r="J291" t="str">
         <f>VLOOKUP(C291,[1]Sheet1!$C:$I,7,0)</f>
@@ -47324,8 +49080,17 @@
       <c r="M291" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N291" s="8"/>
+      <c r="O291" s="8"/>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="9"/>
+        <v>C1169FP</v>
+      </c>
       <c r="C292" t="s">
         <v>1325</v>
       </c>
@@ -47341,9 +49106,8 @@
       <c r="G292">
         <v>27549</v>
       </c>
-      <c r="H292" t="e">
-        <f>VLOOKUP(C291,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H292" t="s">
+        <v>1644</v>
       </c>
       <c r="J292">
         <f>VLOOKUP(C292,[1]Sheet1!$C:$I,7,0)</f>
@@ -47359,8 +49123,17 @@
       <c r="M292" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="293" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N292" s="8"/>
+      <c r="O292" s="8"/>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="9"/>
+        <v>C1170FP</v>
+      </c>
       <c r="C293" t="s">
         <v>1334</v>
       </c>
@@ -47376,9 +49149,8 @@
       <c r="G293" s="11" t="s">
         <v>1372</v>
       </c>
-      <c r="H293" t="e">
-        <f>VLOOKUP(C292,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H293" t="s">
+        <v>1644</v>
       </c>
       <c r="J293">
         <f>VLOOKUP(C293,[1]Sheet1!$C:$I,7,0)</f>
@@ -47394,11 +49166,20 @@
       <c r="M293" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="O293" t="s">
+      <c r="N293" s="8"/>
+      <c r="O293" s="8"/>
+      <c r="Q293" t="s">
         <v>1369</v>
       </c>
     </row>
-    <row r="294" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="9"/>
+        <v>C1171FP</v>
+      </c>
       <c r="C294" t="s">
         <v>1326</v>
       </c>
@@ -47414,9 +49195,8 @@
       <c r="G294">
         <v>27549</v>
       </c>
-      <c r="H294" t="e">
-        <f>VLOOKUP(C293,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H294" t="s">
+        <v>1644</v>
       </c>
       <c r="J294" t="str">
         <f>VLOOKUP(C294,[1]Sheet1!$C:$I,7,0)</f>
@@ -47432,8 +49212,17 @@
       <c r="M294" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="295" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N294" s="8"/>
+      <c r="O294" s="8"/>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="9"/>
+        <v>C1172FP</v>
+      </c>
       <c r="C295" t="s">
         <v>1378</v>
       </c>
@@ -47467,8 +49256,17 @@
       <c r="M295" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N295" s="8"/>
+      <c r="O295" s="8"/>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="9"/>
+        <v>C1173FP</v>
+      </c>
       <c r="C296" t="s">
         <v>1211</v>
       </c>
@@ -47484,9 +49282,8 @@
       <c r="G296">
         <v>27537</v>
       </c>
-      <c r="H296" t="e">
-        <f>VLOOKUP(C295,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
+      <c r="H296" t="s">
+        <v>1644</v>
       </c>
       <c r="J296">
         <f>VLOOKUP(C296,[1]Sheet1!$C:$I,7,0)</f>
@@ -47502,14 +49299,14 @@
       <c r="M296" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="H297" t="e">
-        <f>VLOOKUP(C296,'[2]food bank of central &amp; eastern '!$C:$H,6,0)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="N296" s="8"/>
+      <c r="O296" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B212 B214:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CAFN Dec 2025.xlsx
+++ b/CAFN Dec 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rsiddiq2/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC73391A-87A9-E047-B176-4B5DA61D352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758F7EFB-372B-5A41-AB52-0BE967535A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="27040" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{37761A0D-DF0D-47F4-91F9-34008CD9BB0F}"/>
   </bookViews>
@@ -35872,8 +35872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC91BFA-F072-D542-8D83-2F5554CD9855}">
   <dimension ref="A1:R296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
-      <selection activeCell="C278" sqref="C278"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35928,10 +35928,9 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>1647</v>
       </c>
-      <c r="O1" s="1"/>
       <c r="P1" s="1" t="s">
         <v>1254</v>
       </c>
